--- a/dist/output.xlsx
+++ b/dist/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,20 +493,30 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11382741</v>
+        <v>12916207</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>спилить дерево</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>(№30 за 2.07) Уборка спортивной площадки на Игнатьевском шоссе, 10/4.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>| \*\*ТГ:Здравствуйте!В районе домаИгнатьевское шоссе 10/4Вот уже год установили трек иБольшую спортивную площадкуЭто хорошая новостьДети со всей округи собираются и занимаются спортомЧто приветствуется во всё времена.Но!!!Эта городская территория со спортивным комплексом ни разу не убиралась!!! Нет ни одного контейнера для сбора мусора.Надо заметить всё гости едут с аэропорта по нашему шоссе.И мусор скоро будет виден с высоты полёта.ПросьбаОрганизуйте уборку общественного места и установите контейнеры для сбора мусора.Мы ведь хотим видеть воспитанных людей.Благодарю за понимание.
+ | Елена Елена (#ID6123522697)\*\* | 
+ | --- |</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ЕМИС: @stupnikov Тест. Отправляю с телеграмма
-ЕМИС: @stupnikov Второй тест с телеги
-ЕМИС: @Mavletkulovav Приходят ли сообщения в телегу?
-ЕМИС: @Mavletkulovav тест2
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 07.07.2023, 09:40, справочно - площадка еще не передана, урны контрактом не предусмотрены. В настоящее время подрядчик на другом объекте в Свободном, 17.07.2023 планирует быть в Благовещенске.***
+*Любицкая ИО, 11.07.2023, 09:11*
+Добрый день, Елена!
+Прошу прощения за столь долгий ответ. 
+Дело в том, что работы на данной площадке еще не завершены, подрядная организация устраняет замечания. После того, как объект будет сдан, он будет передан в ГСТК на содержание, которые будут следить за чистотой на территории.
+В настоящее время ответственность за содержание общественной территории лежит на подрядчике, который в срок до 23.07.2023 г. произведен уборку.
+Что касается установки урн, то в данные работы они не входили. После передачи площадки на содержание, ГСТК установят урны.
+Спасибо Вам за неравнодушное отношение к жизни нашего города.
 </t>
         </is>
       </c>
@@ -529,20 +539,29 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11767071</v>
+        <v>12947481</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Не все маршруты отображаются в приложении</t>
+          <t>(№78 за 5.07) Ямочный ремонт на нескольких участках.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Добрый день, 36 и 36 о до сих пор в приложении не отображаются почему-то совсем, остальные маршруты отображаются. Очень сложно без программы. На остановке стоишь и не знаешь придёт сегодня 36 или опять же едешь на такси на работу. И сегодня заметила что 36 не отображался на мониторе на остановке вообще. Какой то замкнутый круг. Вчера пыталась навести по штрих коду которые развешаны на остановке, опять же нет 36 совсем
-Anna (#ID1985843093)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>**ТГ:**
+**Добрый день! Когда у нас в городе будут делать ямочный ремонт на дорогах или хотя бы подсыпать ямы. Например: ул. Мухина между Пролетарской и Заводской; ул. Студенческая поворот на садик , который расположен по адресу Игнатьевкое шоссе 12/5; ул , Студенческая, где проходят трубы ТЭЦ ( ориентировочно между Студенческая 13 и Студенческая 15)**
+ОБ (#ID2102183971)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Добрый день!**
+**Сотрудники ГСТК ежедневно выполняют мероприятия по содержанию улично-дорожной сети города в соответствии с утвержденным графиком.**
+**В ночь с 08.07.2023 на 09.07.2023 работы по ямочному ремонту струйно-инъекционным способом на участке ул. Мухина от ул. Игнатьевского шоссе до ул. Пролетарская были выполнены. В срок до 23.07.2023 работы будут выполнены и на остальных, указанных Вами участках.**
+**Благодарю Вас за сигнал. Извините за предоставленные Вам неудобства!**
+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -562,27 +581,28 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>11633619</v>
+        <v>13026579</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Улица 50 лет Октября- Октябрьская яма</t>
+          <t>(№101 за 6.07) Ямочный ремонт</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>**ТГ:**
-**Улица 50 лет Октября- Октябрьская яма**
-Иван (#ID6157266052)
-![](https://files.kaiten.io.s3.amazonaws.com/befa170a-c3ac-436f-99fc-3d8604e845d9.png)</t>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте! Уже несколько раз оставляла заявку на выкос травы по улице Кантемирова. Видимости, при выезде с прилегающей дороги, просто нет. Трава с человеческий рост. Сейчас каникулы, дети бегают, и приходится выезжать на дорогу, чтобы убедиться в отсутствии транспорта. Безобразие и полное халатное отношение к своей работе! И ещё вопрос? Сколько будет продолжаться этот бесконтрольный ямочный ремонт? Смесь заливают прямо в лужи, заплатку сделают, а в 20 см ямы не заделают (ул.Дорожников), тротуаров нет, везде трава. Почему не контролируют работу горе мастеров. Улица Нагорная, маршрут автобуса 16, вообще в плачевном состоянии, как там вообще автобус ходит?!! Улица Студенческая - ул. Институтская, яма см. 30 глубиной!!! Наверное надо делать фото и видео и отправлять на сайт президента, а то одни отговорки у всех.**
+Ирина Бойко (#ID5286995375)
+</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лагода Юлия: @Mavletkulovav Для работы
-Лагода Юлия: Исполнено
-Мавлеткулов Александр Вячеславович: Готово
-нет
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 10.07.2023, 10:33**
+**Здравствуйте, Ирина.**  
+**Работы по скашиванию сорной растительности  по ул.Кантемирова от Игнатьевского шоссе до ул.Воронкова были выполнены в плановом режиме днем 08.07.2023.**
+**А также поручил ГСТК провести работы по ямочному ремонту в срок до 24.07.2023**
+**Спасибо за обращение!**
 </t>
         </is>
       </c>
@@ -605,22 +625,33 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11767101</v>
+        <v>12914657</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Балконная перепланировка       
-    Ольга Гончарова (#ID1439352807)</t>
+          <t>(№6 за 1.07) Ямочный ремонт от Ленина - Лазо до Политехнической и порыв около Ленина, 27.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ТГ:
-Здравствуйте. Такая ситуация. Живём на 4 этаже, сосед на 3 этаже делает незаконную перепланировку, убрал стену на кухне, заделал окно в зале. Как узнать, законно ли все это, так как велика вероятность, что разрешения на перепланировку у него нет. А вдруг стены несущие и будет обвал? Тем более у нас дом аварийный, балконная кирпичная кладка отошла от стены на верхних этажах. Что делать жильцам?
-Ольга Гончарова (#ID1439352807)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте. Будет проводиться ямочный ремонт от Ленина - Лазо до Политехнической.**
+**Еще бы хотела узнать куда можно обратиться**
+**У нас при въезде во двор около Ленина 27 на стоянке с торца здания порыв вода бежит уже 4 день в акс обращались но так никакой реакции и нет**
+ , @olyako18 (#ID479880319)
+</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 03.07.2023, 12:57**
+**Здравствуйте!**
+**Мною поручено АКС проверить данный участок наличие или отсутствие технологического нарушения в срок до 06.07.2023. В случая выявления нарушение будут проведены работы по его устранению.**
+**Ямочный ремонт будет выполнен в срок до 25.07.2023.**
+**Спасибо за обращение!**
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -640,14 +671,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11882008</v>
+        <v>12915639</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>тест</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t xml:space="preserve">(№8 за 1.07) Профилирование подъезда к дворовой территории по адресу Красноармейская, 159/5. </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>**ТГ:**
+**Добрый день, подъезд к дворовой территории по адресу Красноармейская 159/5 в больших ямах, есть возможность хотя бы грейдер пустить?**
+Антон, @IIIeIIarD (#ID497380913)
+![](https://files.kaiten.io.s3.amazonaws.com/7e78b914-0392-45d3-8cd9-21b74095a664.jpg)
+&gt;</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -660,58 +699,3677 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1312630</v>
+        <v>1312627</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Готово</t>
+          <t>Просрочено</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12543740</v>
+        <v>12922581</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>спилить дерево</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>(№61 за 4.07) Провал тротуарной плитки на пересечении улиц Институтская и Кантемирова.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день. Провалилась плитка на тротуаре, пересечение улиц Институтская и Кантемирова, возле дома по адресу Институтская 12**
+Александр (#ID234011674)
+![](https://files.kaiten.io.s3.amazonaws.com/2bad7c0b-83ff-4482-a6aa-0616dadd2fb1.jpg)
+</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Перов Дмитрий Александрович: **Выполнено**
-Перов Дмитрий Александрович: @Mavletkulovav в работу
-Мавлеткулов Александр Вячеславович: Ок
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 05.07.2023, 12:30***
+**Добрый день, Александр!**
+**На данном участке СЛС будут проводить работы по переносу опор освещения (в настоящее время они получают ордер на производство земляных работ). После чего тротуарная плитка будет восстановлена.**
+**Планируют завершить все работы в течение месяца г.**
+**Спасибо за обращение и хорошего Вам дня!**
+*Перов Д.А.07.07.2023, 16.08*
+*6 июля было вчера. Выполнено?*
+*Любицкая ИО, 10.07.2023, 10:44 - нет, в течение месяца всё устранить должны. Исправила срок в ответе. Более точный не дают.*
 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1312627</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>12925303</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(№74 за 5.07) Работа светофора по Театральной</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ВК:**
+**Здравствуйте,когда сделают светофор по театральной возле кольца,к магазину «ангара» подходить , остановка там ,такой поток машин , пройти невозможно .**
+++**[Karina Ordzhonikidze](https://vk.com/karineesssa)**++
+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 05.07.2023, 12:35***
+**Добрый день, Карина!**
+**Ремонтные работы на объекте еще ведутся. Осталось провести электричество к светофору и подключить его. К концу текущего месяца все работы будут выполнены и светофор будет работать.**
+**В настоящее время прошу Вас руководствоваться правилами дорожного движения и быть внимательной на дорогах.**
+**Хорошего Вам дня!**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1312627</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>13026595</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(№128 за 8.07) Сообщить о принятых мерах по Строителей, 70.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ВК:**
+**Здравствуйте. Это вид с окна на улице Строителей д 70.**
+**Управляющая компания в принципе ничего не делает для улучшения условий жизни проживающих. Мало того что двор в ужасном состоянии, непонятный песок, где можно было бы положить плитку, и заезд к дому тоже желает лучшего. Неужели нельзя заасфальтировать данный участок дороги!? Фотография к тому , что один фонарь горит на всю придомовую территорию. Мы ходим на выборы, голосуем, хотим видеть изменения в лучшую сторону. Уделите пожалуйста несколько минут своего рабочего времени и обратите внимание на нашу проблему. Спасибо**
+**2 очередь дома сдана в 2019 году**
+++**[Олег Фомин](https://vk.com/id187474838)**++
+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 12.07.2023, 10:41**
+**Здравствуйте, Олег!** 
+**За общее имущество собственников МКД, к которому относится двор и все, что в нем установлено, включая опоры освещения, является имуществом собственников, на которых законодательно возложено содержание этого имущества в надлежащем состоянии. По информации Вашей УК, в настоящее время в Вашем доме проходит голосование, в которое включены вопросы  по освещению придомовой территории.** 
+Благоустройство дворов города администрация осуществляет посредством  реализации различных программ, с условиями участия которых Вы можете ознакомиться на официальном сайте администрации. В части неисполнения УК своих полномочий рекомендую обратиться в государственную жилищную инспекцию, которая осуществляет соответствующий контроль. Кроме того, собственники в такой ситуации вправе  принять решение о смене УК . Кроме того, мною дано поручение УЖКХ  принять необходимые меры к управляющей компании.
+О принятых мерах со стороны администрации Вам будет сообщено дополнительно до 21.07.2023
+Спасибо за обращение!
+Коротченко А.В., 12.07.2023, 10:41 (скорректированный ответ)
+Здравствуйте, Олег! 
+За общее имущество собственников МКД, двор и все, что в нем установлено, включая опоры освещения, законодательно возложено его содержание этого имущества в надлежащем состоянии самими собственниками. 
+По информации Вашей УК, в настоящее время в Вашем доме проходит голосование, в которое включены вопросы  по освещению придомовой территории. 
+Благоустройство дворов города администрация осуществляет посредством  реализации различных программ, с условиями участия которых Вы можете ознакомиться на официальном сайте администрации. В части неисполнения УК своих полномочий рекомендую обратиться в государственную жилищную инспекцию, которая осуществляет соответствующий контроль. Кроме того, собственники в такой ситуации вправе  принять решение о смене УК . Кроме того, мною дано поручение УЖКХ  принять необходимые меры к управляющей компании.
+О принятых мерах со стороны администрации Вам будет сообщено дополнительно до 21.07.2023
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1312627</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>13026665</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(№158 за 11.07) Выезд административной комиссии по адресу Краснофлотская, 75.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день, прошу вас разобраться в сложившейся ситуации возле дома 77 по ул. Краснофлотской, а именно с момента открытия государственной границы, гости города с поднебесной арендовали помещение бывшей гостиницы прилегающее к вышесказанному дому и устроили из него склад, данное помещение расположено по адресу: Краснофлотская д. 75. Проблема состоит в том, что граждане КНР не имея собственных мусорных контейнеров выбрасывают свои отходы в мусорные контейнеры принадлежащие и оплачиваемые собственниками многоквартирного дома, помимо этого вся дворовая и пред дворовая территория загажена отходами данных граждан, также постоянный нескончаемый поток автомобилей практически заблокировал въезд во двор из за чего жильцы дома не могут попасть на территорию своего дома. Проведите соответствующую проверку по данному факту, обяжите собственника помещения дома 75 по ул. Краснофлотской поставить корзины для мусора, а также при нарушении административного законодательства привлеките к ответственности за организацию незаконной свалки. Ниже прилагается видео.**
+…, @blg128amur (#ID2094229294)
+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***По информации ООО "Полигон" договор на оказание услуг по обращению с ТКО по объекту ул. Краснофлотская, 75 заключен, вывоз организован бесконтейнерным способом (в пакетах) 1,5 куб. м (6 пакетов по 240 литров) ежедневно.***
+Коротченко А.В., 13.07.2023 12:55
+Добрый день!
+По информации Полигон договор на оказание услуг по обращению с ТКО по  ул. Краснофлотская, 75 заключен, вывоз организован без контейнерным способом. На участке ул. Краснофлотская между шлагбаумом и ул. Политехническая ГСТК в июле были установлены 3 урны, с 05 июля уборка от случайного мусора на данном участке осуществляется ГСТК ежедневно.С целью недопущения загрязнения данной территории административная комиссия взяла на особый контроль данную территорию.Очередной выезд комиссии состоится 20.07.2023 по результатам выезда будет принято решение, о котором сообщат Вам дополнительно до 26.07.2023.
+Спасибо за обращение!
+*Перов Д.А.17.07.2023, 08.45*
+*Тогда почему замусорена дворовая территория по Краснофлотской, 77?*
+*Коротченко А.В. 17.07.2023  12:04* 
+*Уточним у УК, но насколько поняла из текста речь идёт о контейнерной площадке по ул. Краснофлотская 75, рядом с Краснофлотской 77.*
+*Коротченко А.В., 18.07.2023 10:03*
+*По информации УК дворовая территория Краснофлосткая, 77 чистая,  фото прилагаю*
+*Специалисты жкх выезжали на место и  на краснофлотскую 75-77 необходимо направить Административную комиссию для отработки уборки прилегающей территории к юр лицам.*
+*Территория замусорена у гостиницы и у кафе, прошу подключиться Управление потреб рынка!* 
+Коротченко А.В., 19.07.2023 18:30
+Добрый день!
+По информации “Полигон”, договор на оказание услуг по обращению с ТКО по  ул. Краснофлотская, 75, заключен, вывоз организован безконтейнерным способом. На участке ул. Краснофлотская между шлагбаумом и ул. Политехническая ГСТК в июле были установлены 3 урны, с 05 июля уборка от случайного мусора на данном участке осуществляется ГСТК ежедневно. Для недопущения загрязнения данной территории административная комиссия взяла ее на особый контроль.Очередной выезд комиссии состоится 20.07.2023, по результатам выезда будет принято решение, о котором сообщат Вам дополнительно до 26.07.2023.
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1312627</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13026668</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(№171 за 12.07) Ликвидировать свалку бытовых отходов в районе Чайковского 171</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день, подскажите возможно как то рассмотреть возможность ликвидировать свалку бытовых отходов в районе Чайковского 171в. Много людей отдыхает на берегу р.Зея (рыбаки, прогуливающиеся горожане).**
+Тимур Timur (#ID5109690132)
+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***(справочно) 13.07.2023 после обеда будет выезд по данному вопросу***
+Коротченко А.В. 14.07.2023 10:34
+Здравствуйте, Тимур!
+Дал поручение ГСТК ликвидировать свалку в срок до 01.08.2023.
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1312627</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>13026671</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(№175 за 12.07) Демонтаж столба на Горького - 50 лет Октября</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Этот спиленный столб торчит на перекрёстке Горького - 50 лет, огромная просьба пилить его короче положить плитку на это место.**
+Тамара Хабалова, @Tamara_blg (#ID5702590192)
+![](https://files.kaiten.io.s3.amazonaws.com/42d992f2-4d35-4590-b50b-d354c64225fe.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В.,13.07.2023 14:44**
+**Добрый день, Тамара!**
+**Поручил ГСТК выполнить работы по ремонту столба на указанном вами участке до 01.08.2023.**
+**Спасибо за обращение!**
+*(справочно)внизу бетонная конструкция 1,5\*1,5 метра либо там всё надо выкапывать либо обкапывать вокруг и убирать плитку*
+*Перов Д.А.14.07.2023, 10.50*
+*Ремонт или демонтаж? Так Работы в итоге будут выполнены?*
+*Коротченко А,В,, 15:24* 
+*будет демонтаж, исправлю.*
+Коротченко А.В.,13.07.2023 14:44
+Добрый день, Тамара!
+Поручил ГСТК выполнить работы по демонтажу столба на указанном вами участке до 01.08.2023.
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>13083666</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(№211 за 15.07) Провести очистку и углубление водоотводных канав по пер. Центральный между ул. Пограничная и ул. Павленко.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ОК:**
+**Здравствуйте,  15 июля, я понимаю дел у Вас выше крыши. Ливневка наша поросла травой.переулок Центральный 9**
+**НИНА КРАСНИКОВА**
+Мы ей отвечали ранее: Здравствуйте, Нина!
+Поручил внести в план работ ГСТК на июль очистку и углубление водоотводных канав по пер.Центральный между ул.Пограничная и ул.Павленко. Постараемся уложиться в срок до 15.07.2023.
+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 31.07.2023, 12:06**
+**Здравствуйте, Нина!**
+**Прошу прощения за столь долгий ответ.** 
+**Мероприятия по прочистке ливневой канализации будут выполнены до 01.08.2023.**
+**Спасибо за обращение!**  
+***Перов Д.А. 31.07.2023, 14.10***
+***01\.08 - это завтра. Вы уверены, что сегодня будет сделано?***
+*Грачева ЕА, 01.08.2023, 10:48 (уверена в обратном. Ответ скорректирован):*
+Здравствуйте!
+Прошу прощения за столь долгий ответ. 
+В связи с большим объемом работ, сотрудники ГСТК не всегда успевают выполнить работы в намеченные сроки.
+Мероприятия по прочистке ливневой канализации по пер. Центральному запланированы на август. 
+Постараемся успеть к 15.08.2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>13028454</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(№230 за 17.07) Уборка сухих веток по улице Новой</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, с 98года по улице Новой между Горького и Красноармейскай скос травы на газоне производилась силами гстк.В этом году гстк не скосили вовремя и штраф за это Администрация выписала нам.на каком основании?**
+Так же на протяжении двух лет писали обращение на уборку сухих опасных веток,толку ноль то оказали то потеряли обращение
+Иришка (#ID687385018)
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Коротченко А.В. 19.07.2023 15:25***
+***заявка направлена на спил гстк***
+**Слепцов С.С. 19.07.2023 16.50** 
+ **Здравствуйте, Ирина!** 
+**Действующие положения Правил благоустройства города Благовещенска возлагают обязанности на правообладателей земельных участков принимать меры по уборке прилегающей территории. Для каждого вида объекта ширина прилегающей территории установлена дифференцированно. В случае индивидуального жилого дома - 10 метров.** 
+**Членами административной комиссии проводятся рейды по выявлению нарушений требований Правил благоустройства, в том числе и на предмет наличия сорной травы возле частных домов. В случае выявления подобного нарушения, составляется протокол об административном правонарушении и на заседании комиссии выносится решение. Как правило принимается решение о назначении минимального штрафа, причем в случае его оплаты в течении 20 дней, оплачивается 50 процентов от суммы штрафа.**
+**Но если Вы считаете, что в действиях административной комиссии допущены нарушения действующего законодательства, то Вы мы можете обратиться в судебные органы за защитой своих прав.**
+**Также в связи с большой загруженностью поручил ГСТК выполнить уборку сухих веток  в срок до 15.08.2023**
+**Спасибо за обращение!    **
+***Перов Д.А. 20.07.2023, 08.34***
+***Человек ошибается, что раньше эту работу выполнял ГСТК?***
+***Коротченко А.В. 20.07.2023 17:56***
+***По информации ГСТК там частный сектор, раньше его косили, с этого года его не косят из-за дефицита средств.***
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>12921073</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(№40 от 3.07) Заделка наружных швов на доме Ленина, 62.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте. Сегодня 3.07.2023 так никто и не приступил к работе.**
+**Ленина 62 кв 23**
+Юлия (#ID874567305)
+Она писала в мае:
+Я столкнулась с такой проблемой. Подала заявку в управдом по заделке наружных швов на доме номер 7369 от 14.09.2022. Меня кормили обещаниями придет тепло мы все сделаем. В марте пришел мастер посмотрел, составил акт и сказал до конца апреля вопрос решим звоните узнавайте. Позвонила им сегодня и ответ был таким, мы не знаем когда будут выполнены работы и будут они выполнены вообще. Швы делали в последний раз в 2011 году пеной, пены почти не осталось прям дырку с улицы, в квартирах зимой холод.
+Мы ей отвечали:
+Для утепления швов просто пены недостаточно. Для начала нужно их очистить, затем заложить пеной, а потом швы промазываются специальным резиново-техническим составом “броня” .
+Уточнил информацию в Вашей управляющей компании и выяснил, что сейчас ведется закупка необходимого материала и с 15.06.2023 специалисты приступают к работам.
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 10.07.2023, 15:53**
+**Добрый день, Юлия!**
+**По информации Управдом, материал для заделки швов закуплен. Из-за большого количества заявок заделка швов будет произведена в срок до 01.09.2023, прошу вас проявить немного терпения!**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>13026582</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(№105 за 6.07) Установить знаки "Въезд запрещен" и "остановка/стоянка запрещена</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте!**
+**У жителей нашего дома по ул.Калинина,61 просьба установить знаки "Въезд запрещен" и "остановка/стоянка запрещена".**
+**По существу просьбы: наш многоквартирных дом находится на перекрёстке улиц Калинина- Красноармейская, в нашем доме со двора находится отделение судебных приставов, несколько частных компаний и сауна. С улицы Калинина находится магазин К&amp;К, магазин продуктов питания с круглосуточным режимом работы и киоск Куры гриль тоже с круглосуточный режимом работы.**
+**Днем жителям дома невозможно проехать к подъездам и во двор, всю стоянку и проезд занимают посетители частных компаний, сауны и особенно судебных приставов. Во дворе припаркованы автомобили сотрудников службы ФССП, просьбы и объявления не парковать авто на территории дома не имеют никакого результата. В связи с этим, просим установить знак " Въезд запрещен" на въезде на территорию двора многоквартирного дома.**
+На ул. Калинина с 7-8 часов вечера начинается вечерняя жизнь, возле круглосуточных киоска Куры гриль и магазина собираются компании молодых людей, распивают напитки, слушают музыку, поют песни и веселятся от всех души - это доставляет огромное неудобство и беспокойство жителям дома, даже не смотря на закрытые окна. Каждый вечер для нас - это борьба жильцов и отдыхающих компаний около нашего дома со стороны ул.Калинина. В связи с этим просим Вас инициировать и поручить установку дорожного знака " Остановка запрещена" с указанием времени действия такого ограничения с 22:00 до 6:00.
+Мы обращались в ГИБДД с такой просьбой, но нам ответили, что установку знаков может инициировать и поручить только градоначальник - мэр города, органы ГИБДД являются исполнителями.
+С уважением,
+Представитель собственников жилья ул.Калинина, 61
+Вера Николаевна Митиненко
+Vera Mitinenko, @veramitinenko (#ID505374085)
+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Коротченко А.В.10.07.2023 17:35***
+***Здравствуйте, Вера Николаевна!***
+***В указанном Вами районе проектом организации дорожного движения этот знак не предусмотрен.еще пишу***
+Коротченко А.В., 11.07.2023 13:52
+Здравствуйте, Вера Николаевна!
+Данный вопрос, по моему поручению, будет вынесен на комиссию по безопасности дорожного движения в августе, после чего вам дополнительно поступит сообщение о решении комиссии.
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>13026584</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(№110 за 6.07) Водоотведение на отремонтированном участке Горького</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день. Домой идя когда льет дождь по итогу по колено можешь оказаться в луже - НА ОТРЕМОНТИРОВАННОМ не так давно участке Горького, а я думаю не только там, происходит интересная штука, воды на переходах по зебре по-колено. Сливные решетки не забиты, они просто в метре от пешеходного перехода стоят на возвышении КАК БЫ НАПОМИНАЮТ О ТОМ, что у нас дороги и Дураки как были самой главной проблемой так и остались. Одни дураки строят эти дороги, другие принимают. Если сейчас не предпринимать ничего, то в хороший ливень город опять будет плавать несмотря на выброшенные бюджетные деньги для решения по большей части именно этих проблем. Проинспектируйте горького Шимановского на предмет высотного уровня ливневок.**
+**Я так понимаю вы приняли дорогу на  проверке как исправно выполненную?**
+**Dmitry K, @cerberDK (#ID218634908)**
+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 07.07.2023, 16:03***
+**Добрый день, Дмитрий!**
+**При реконструкции улиц разрабатывается проект, всё делается с нуля (и канализация, и ливневые стоки, колодцы, дорожное полотно с количеством полос и т.д.). На ул. Горького был ремонт автомобильной дороги, который выполнялся в существующих отметках (где ливневая канализация была, там она и осталась, никто её не сдвигал и высотное положение не менял).**
+**05\.07.2023 состоялся комиссионный выезд. К сожалению, произвести на участке замену асфальтобетонного покрытия и сделать ещё больший уклон возможности нет, т.к. это будет нарушением нормативов.**
+**Поручил управлению капитального строительства направить в адрес подрядной организации, занимающейся ремонтом ливневой канализации, претензионное письмо и взять на контроль данный вопрос.**
+**Процедура будет не такой быстрой, как хотелось бы, поэтому прошу проявить немного терпения.**
+**Благодарю Вас за понимание и неравнодушное отношение к нашему городу.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>13026588</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(№115 за 7.07) Яма по ул. Калинина  - просадка асфальтобетонного полотна на пешеходном переходе</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте. На дорожном полотне, как раз на пешеходном перекресте, по ул Калинина (Горького) по направлению на север, ямка, сегодня переходила, оступилась. Хорошо обошлось, ничего не сломала. Хорошо бы устранить проблему.**
+Наталья Коваленко (#ID5198778933)
+</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 10.07.2023, 16:17 (промежуточный ответ)***
+**Наталья, добрый день!**
+**На текущей неделе будет выезд на указанный Вами участок для его осмотра на дефекты. По итогам напишу Вам дополнительно.**
+**Благодарю Вас за информацию и будьте аккуратнее на дорогах. Хорошего Вам дня!**
+*Справочно - был выезд заказчика и подрядчика на данный объект. Данная яма не является гарантийным случаем, т.к. находится в районе колодца. Необходим дополнительный выезд с подрядной организацией, проводившей ремонт ливневой канализации. Ответ по итогам позже.*
+**
+**
+*Любицкая ИО, 26.07.2023, 09:17 ИТОГОВЫЙ*
+Здравствуйте, Наталья!
+Прошу прощения за столь долгий ответ.
+По итогам комиссионного выезда была обнаружена просадка асфальтобетонного полотна на пешеходном переходе. Был составлен акт и в адрес подрядной организации, проводившей работы по ремонту тепловой сети, было направлено письмо со сроком устранения дефекта до конца августа.
+Благодарю Вас за неравнодушное отношение к жизни нашего города.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>13096935</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>(№372 по 27.07) Ремонтные работы на инженерных сетях по Игнатьевскому шоссе, 7</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день,подскажите когда будет горячая вода в домах 2 микрорайон ул. Игнатьевское шоссе 7 . Обучали 2августа дать ? Мы с мая без горячей воды**
+Лариса Владимировна Безрукова, @lIlariz (#ID5267494160)
+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 15:48**
+**Здравствуйте, Лариса Владимировна!**
+**В Вашем районе ремонтные работы на инженерных сетях проводят  специалисты АКС.**
+**Эти работы продлятся до 22.08.2023, .**
+**Прошу проявить еще немного терпения, так как данные мероприятия направлены прежде всего на обеспечение нормативного теплоснабжения в отопительный период, снижения риска возникновения аварийных ситуаций, устранения технологических нарушений.**
+**Приношу свои извинения за предоставленные Вам временные неудобства.**
+**
+**
+*Перов Д.А. 31.07.2023, 15.24*
+*Объясните людям, из-за каких мероприятий у них все лето нет горячей воды*
+Грачева ЕА, 01.08.2023, 12:00 (ответ скорректирован):
+Здравствуйте!
+Ваш район(участок от ул. Дьяченко от ул. Институтской до ул. Игнатьевское шоссе) отключен от горячего водоснабжения в связи с проведением ремонтных работ на тепловых сетях. Это замена ветхих труб, запорной арматуры, компенсаторов и опор. 
+В связи с большим объемом работ, срок выполнения пришлось продлить до 22.08.2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>12920631</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(№35 за 3.07) Ремонтные работы по замене сети по адресу Ломоносова, 68.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>**ВК:**
+**Добрый день. Помогите пожалуйста. У нас в частный дом Ломоносова 68 в подвал поступает горячая вода. Теплосетям сообщили час назад, вода поступает очень быстро. Никто не реагирует. Теплосети говорят что передали информацию они ждут**
+**В доме малолетние дети**
+++**[Виктория Амельяненко](https://vk.com/id608398563)**++</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 07.07.2023,12:37**
+**Здравствуйте, Виктория!**
+**Уточнил и выяснил, что произошел порыв на тепловых сетях и это являлось причиной затопления подвала.Выезжала на указанный адрес выездная комиссия и были проведены работы по обнаружению утечки 03.07.2023.**
+**В настоящее время сеть перекрыта. Проведение ремонтных работ по замене сети до 01.09.2023.**
+**Приношу свои извинения за доставленные вам неудобства!**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>12920424</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>(№33 за 3.07) Восстановление благоустройства по ул. Шевченко между ул. Октябрьская и ул. Северная</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте! Октябрьская, 197, со стороны Шевченко сняли асфальт и не восстановили. Сейчас дожди налили огромную лужу! Невозможно выйти на парковку- на этом месте вода и грязь.**
+Наталья (#ID1714736605)
+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Рябкова Н.А 03.07.23, 10:33(для информации)***
+***ГСТК работы не проводил.***
+*Любицкая ИО, 04.07.2023, 16:49, справочно - ГУКС работы на данном участке не проводил.*
+* 
+Коротченко А.В. 10.07.2023, 16:56
+На основании ордера на производство земляных работ № 4/24 от 10.05.2023 ООО КСК "ХуаФу" проводило устройство сетей теплоснабжения по ул. Шевченко между ул.Октябрьская и ул. Северная. В настоящее время данный участок дороги находится на содержании у ООО КСК "ХуаФу". Срок окончания работ включая восстановления благоустройства до 08.08.2023.*
+Коротченко А.В. 11.07.2023, 11:40
+Здравствуйте, Наталья!
+На основании ордера на производство земляных работ № 4/24 от 10.05.2023 ООО КСК "ХуаФу" проводило устройство сетей теплоснабжения по ул. Шевченко между ул.Октябрьская и ул. Северная. В настоящее время данный участок дороги находится на содержании у ООО КСК "ХуаФу". Срок окончания работ включая восстановления благоустройства до 08.08.2023.
+Спасибо за обращение!
+Коротченко А.В. 11.07.2023, 11:40(скорректированный ответ)
+Здравствуйте, Наталья!
+Специалисты УЖКХ на постоянной основе отслеживаются данные ситуации и примут все меры по недопущению халатности содержания участка.
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>12923953</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(№65 за 4.07) Установить леерное ограждение на детской площадке в районе ДВОКУ</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте. В сквере по Ленина недалеко от ДВОКУ расположена детская площадка. Она не отгорожена от дороги, это опасно. Дети играют в мяч и могут выбежать под машину.** 
+Tatiana Fedulova (#ID1052905452)
+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 05.07.2023, 10:03, справочно - в контракт входили работы по обустройству МАФов, тротуарной плитки, парковки. Никакого ограждения не входило в работы.*** 
+*Любицкая ИО, 05.07.2023, 12:33*
+Добрый день, Татьяна!
+Все работы на данном объекте проводились с согласованием вышестоящих инстанций и были выполнены в полном объеме. Ограждение не предусмотрено проектом на этой общественной территории,  т.к. детская площадка не предназначена для игр в мяч. Но несмотря на это, поручил коллегам проработать Ваш вопрос и установить леерное ограждение в срок до 13.08.2023.
+Спасибо за обращение и хорошего Вам дня!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>13027675</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>(№192 за 13.07) Разметка на Калинина - Тенистой</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ОК:**
+**Пожалуйста дайте команду продублировать разметку ( штих ) и т.д на перекрестке Калинина Тенистая проезд улицы тенистая по Калинина в обе стороны... Спасибо**
+**Александр Сыщенко**
+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : | **Рябкова Н. А. 14.07.23, 08:21Здравствуйте,Александр.Мероприятия по нанесению разметки в городе ведутся. Поручил  сотрудникам ГСТК поставить в план производства работ указанный Вами участок и обновить разметку до 30.07.23.Спасибо за обращение!
+Рябкова Н.А 28.07.23, 11:05Работы по нанесению разметки перенесены в срок до 08.08.23** | 
+ | --- |
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>13026620</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>(№157 за 11.07) Скосить траву по Красноармейской, 198</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ВК:**
+**Добрый день. По городу косят траву, а у нас Красноармейская 198 когда с косят. Почему только центр, а мы тоже хотим порядок. У нас рядом больницы, очень много машин ставят по обочине дороги, выехать с дома очень сложно. Можно решить вопрос.**
+++**[Лидия Спицына](https://vk.com/id628993646)**++
+</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 19.07.2023 16:52**
+**Добрый день, Лидия!**
+**В связи с большой загруженностью ГСТК мероприятия включены в план производства работ срок исполнения до 10.08.2023.** 
+**Спасибо за обращение.**
+*Перов Д.А. 20.07.2023, 07.53*
+*Напишите грамотно*
+*Коротченко А.В. 20.07.2023 11:04*
+Коротченко А.В., 20.07.2023 10:54 *(скорректированный ответ)*
+Добрый день, Лидия!
+Мероприятия по покосу травы включены в план производства работ. В связи с большой загруженностью ГСТК работы будут выполнены в срок до 10.08.2023.
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1316738</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>13026675</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>(№176 за 12.07) Очистка от мусора территории в районе улицы Железнодорожной</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Продолжение вопроса 30 за 2.06**
+Здравствуйте,уже июль и ничего не сделано,воды ещё больше,вонь от застоявшееся воды, всё гниёт, проезд размывает,заезд с ул. Железнодорожной завален мусором и спиленными ветками. безобразие .прошу откачивать воду со сточной канавы до устранения проблемы. Вынуждена обратиться в надзорные органы за оценкой бездействия органов власти отвечающих за содержание и ремонт данного участка дороги и сточной канавы.
+почему так долго не решается мой вопрос
+Елена Савина (#ID493191519)
+</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Коротченко А.В.19.07.2023 18:54***
+***Дал поручение ГСТК до 30.08.2023 в связи с большой загруженностью произвести очистку от мусора данной территории.***
+***Спасибо за обращение!***
+*Перов Д.А. 20.07.2023, 07.58*
+*Напишите грамотно*
+Коротченко А.В., 20.07.2023 15:53
+Здравствуйте, Елена!
+В связи с большой загруженностью ГСТК очистка данной территории от мусора будет выполнена в срок до 30.08.2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>13027802</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>(№229 за 17.07) Не работает колонка - с. Садовое. Улица Спортивная.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Колонка опять не работаеет. 13 июля дали заявку в водоканал. Сегодня 17.Ничего не сделано, ничего не исправлено.... Посоветуйте, куда обратиться? Может уже не Имамееву жаловаться, а на него ???** 
+**Мне надо мужчинам сварить, постирать, а еще ЛЕТОМ НУЖНО ПОМЫТЬСЯ.**
+**с. Садовое. Улица Спортивная.** 
+Наталья Ярош (#ID5786381919)
+</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>12947609</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>(№80 за 5.07) Ямочный ремонт на ул Амурской, на 2х участках - между Чайковского и Пушкина и между Кузнечной и Театральной.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, обращая Ваше внимание на ул Амурскую, на 2х участках - между Чайковского и Пушкина и между Кузнечной и Театральной на проезжей части образовались ямы, никто их не ремонтирует, в дождь, не зная можно повредить машину или попасть в дтп., спасибо.**
+Ольга (#ID5024970639)
+</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 10.07.23, 14:55**
+**Здравствуйте, Ольга! В целях безопасности дорожного движения поручил специалистам ГСТК провести ямочный ремонт струйно-инъекционным способом на указанных Вами участках, в срок до 20 июля.**
+**Спасибо за обращение.**
+*Коротченко А.В. 18.07.2023 17:05*
+*Работы выполнены 18.07.2023*
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>12947687</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>(№83 за 5.07) Профилирование проезда в районе ЗПУ-3 от ул. Василенко</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день!**
+**Уважаемый,**
+**Олег Гатауллович!**
+**Просьба отреагировать на сложившуюся цитуацию,**
+**которая повторяется не однократно.**
+**Расширяются Площади г. Благовещенска (строение организаций), так почему же не прокладываются и нет возможности добраться до работы и обратно дорожное полотно.**
+**Неужели трудно выделять "Грейдер" хотя бы для выравнивания песка, не говоря уже об отсыпке щебня.**
+**Территория находится в г. Благовещенске, дорога хуже, чем в пригороде.**
+**ПРОШУ ВАС ОТРЕАГИРОВАТЬ И ПОСОДЕЙСТВОВАТЬ В РЕШЕНИИ ДАННОЙ ПРОБЛЕМЫ.**
+**С уважением жительница г. Благовещенска**
+Ирина (#ID5204735866)
+</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : | ***Любицкая ИО, 10.07.2023, 11:20*Добрый день, Ирина!Сотрудники ГСТК содержат дороги общего пользования. Указанный Вами участок не относится к таковым, это внутриквартальный проезд.Поручил им в срок до 25.07.2023 выполнить работы по ремонтному профилированию проезда.Благодарю Вас за обращение и надеюсь на понимание. Хорошего Вам дня!
+*Сегодня будет направлена заявка в ГСТК на профилирование проезда в районе ЗПУ-3 от ул. Василенко в сторону конно-спортивного клуба “Аллюр” в срок до 20.07.23. В ответе специально ставлю больше.*
+*Рябкова Н.А 13.07.23, 13:09Работы по профилированию проезда  выполнены 06.07.23*** | 
+ | --- |
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>12921708</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>(№55 за 4.07) Вывоз дерева на территории общ.АГМА ( Горького-Кузнечная).</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | **ТГ:Доброе утро! На сегодняшний день 4 июля 2023 года нет никаких действий со стороны ГСТК по вашему поручению! Как деревья валялись так валяются в речке, кроме того на территории общ.АГМА ( Горького-Кузнечная) бывший стадион 30 .06, 23г спилили дерево огромный старый тополь сломали забор, ничего за собой не убрали . Как любящий гражданин нашего города , прошу ВАШЕЙ помощи, обратите пожалуйста на это безобразие.
+Ольга (#ID2098164507)
+Мы ей в июне писали:Поручал сотрудникам ГСТК провести мероприятия по очистке реки Бурхановка в районе водопропускных труб, а также распил и вывоз деревьев в срок до 01.07.2023.Работы по очистке трубчатых переходов начались 28.06.2023. ** | 
+ | --- |
+</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В.11.07.2023 18:00**
+**Здравствуйте, Ольга!**
+**Частично работы выполнены.К сожалению, вывезти дерево пока что проблематично, ГСТК делает всё возможное для его устранения.  В срок до 28.07.2023 вывоз будет выполнен.**
+**Спасибо за обращение!**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>12922062</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>(№59 за 4.07) Промывка ливневки по ул. Дьяченко.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день!Вот такое состояние ливневки по ул Дьяченко ,около перехода к школе!**
+Н (#ID5769442010)
+![](https://files.kaiten.io.s3.amazonaws.com/c3bcd953-d54b-4bd4-aa56-6af6a33ec574.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 05.07.23, 10:22**
+**Здравствуйте. Поручил специалистам ГСТК провести работы по промывке ливневой канализации по ул.Дьяченко в срок до 10.07.23.**
+**Спасибо за обращение.**
+Рябкова Н.А 06.07.23, 09:41
+Работы по промывке ливневой канализации выполнены 05.07.23
+Фото прилагаю
+*Рябкова Н.А 06.07.23, 09:43(ответ скорректирован)* 
+Здравствуйте. По моему поручению специалистами ГСТК  были проведены работы по промывке ливневой канализации по ул.Дьяченко 05.07.23.
+Спасибо за обращение и хорошего Вам дня!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>12914423</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>(№2 за 1.07) Прочистить ливневую канализацию на Лазо, 79.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>**Здравствуйте. Ливневая канализация. Лазо, 79**
+SvetLanA18, @SvetLana_18a (#ID143977609)
+![](https://files.kaiten.io.s3.amazonaws.com/ee463dd1-d13d-4b31-9ca1-1e82d7c107d2.jpg)
+![](https://files.kaiten.io.s3.amazonaws.com/65a46a63-c589-4f36-8aff-7cff6b12a6c8.jpg)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 03.07.23, 09:55**
+**Здравствуйте, Светлана. Поручил специалистам ГСТК провести очистку ливневых решеток по ул.Лазо, в срок до 07.07.23.**
+**Спасибо за обращение!**
+Рябкова Н.А 04.07.23, 10:46
+Работы по очистк ливневой решетки по ул.Лазо,79 выполнены 03.07.23
+Фото прилагаю
+Плотникова Екатерина Игоревна : ![]()
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>12914476</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>(№4 за 1.07) Установить урны на участке ул. Краснофлотской.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>**ТГ:**
+**Здравствуйте Уважаемый Олег Гатаулович, пишим вам повторно по поводу бардака, который творят китайцы по ул. Краснофлотской между Чайковского и Политехнической, подьезд к речному вокзалу свалку убрали, появилась новая, когда уже примутся меры, территория по видиму городская, амур ассо никак не реагирует, если не принять никаких мер, то через месяц придётся бульдозер ом все вывозить, отправляю видео от 01.07.2023**
+Юлия Парубенко (#ID5334370100)
+![](https://files.kaiten.io.s3.amazonaws.com/1f49c071-8aa6-43c8-93ae-21549419cbf7.jpg)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 05.07.2023, 15:35**
+**Здравствуйте, уважаемая Юлия!**
+**Дал поручение сотрудникам ГСТК  в срок до 17.07.2023 установить урны на участке ул. Краснофлотской между шлагбаумом и ул. Политехническая и организовать ежедневную уборку с 06.07.2023 указанной территории от случайного мусора .**
+**Спасибо за обращение!**
+Коротченко А.В.06.07.2023, 15:52
+Работы по уборке данной территории выполнены
+Фото прилагаю
+***Коротченко А.В., 10.07.2023, 15:07***
+***Урны установлены 10.07.2023***
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>13027706</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(№210 за 15.07) Отремонтировать ул Пушкина между Горького и Амурской</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, можно еще отремонтировать ул Пушкина между Горького и Амурской, уже давно разбит этот участок и ямы со временем увеличиваются, спасибо.**
+Ольга (#ID5024970639)
+</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 17.07.2023, 09:29***
+**Ольга, добрый день!**
+**В нашем городе не так уж мало участков улично-дорожной сети, требующей ремонта. К сожалению, в планах на текущий год ремонта данного участка нет.** 
+**Поручил сотрудникам ГСТК сделать выезд и подсыпать ямы в срок до 31.07.2023 г.**
+**Ремонт участка рассмотрим в планах на 2024-2026 гг.**
+**Спасибо за обращение и будьте внимательнее на дорогах!**
+**
+**
+*Рябкова Н.А 18.07.23, 10:05-  Согласовано*
+*Работы выполнены 18.07.2023*
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>12914448</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>(№3 за 1.07) Восстановление пешеходных дорожек на Пушкина, 66.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>**ТГ:**
+**Продолжение вопроса 7 за 1.06**
+Здравствуйте. Пришёл июль. А наш вопрос остался открытым. Никакого подрядчика мы так и не увидели. Сколько ещё нужно ждать?
+Олег (#ID5280891029)
+**Он писал ранее:**
+Здравствуйте. Вопрос по Пушкина 66. В прошлом году производилась замена труб, вдоль дома. Я понимаю, мера вынужденная. Мы все лето дышали пылью.
+Пошел год, мы продолжаем  этой пылью дышать, наши ветра поднимают это всё. На место проводимых работ завезли какой-то кочкарник с болота в перемежку с глиной и кусками асфальта. На нём даже трава не растет.
+Были дорожки от тротуара до парковок - теперь до машины добираемся по пахоте. Раньше газон отделял металлический забор, все было культурно и красиво. Где теперь этот забор неизвестно.
+Стоянку даже от строительного мусора до конца не убрали, куски дорожных бордюров торчат.
+Кто должен восстанавливать это всё? Жильцы?
+Заранее спасибо за ответ
+**Последний наш ответ:**
+Олег, здравствуйте!
+До 30.06.2023 подрядчик уберет весь строительный мусор, в том числе будет решаться вопрос с забором и дорожками. Забор и дорожки демонтировали не полностью по причине того, что не все они попали в зону производства работ. Подрядная организация работает исключительно по тех.заданию контракта и в определенных границах. Что касается газона, то его посев не входил в контракт. Напомню, что работы по ул. Пушкина проводились по ремонту ливневой канализации.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 03.07.2023, 10:19***
+**Олег, добрый день!**
+**На сегодняшний день строительный мусор с объекта убран. Также вопрос с восстановлением  пешеходных дорожек, которые ведут от тротуара до парковки, решен. В срок до 20.07.2023 они будут восстановлены.**
+**Что касается забора, то он находился в охранной зоне (где его установка невозможна) и попал в границы производства работ, от чего и был частично демонтирован. Вопрос с его монтажом/демонтажом соответветственно ещё не решен, но Вы не переживайте, он на контроле и в течение месяца будет решен.**
+**Надеюсь на понимание и прошу прощения за столь долгий ответ.**
+*Справочно - подрядчик демонтировал часть забора, который попал в границы производства работ. Восстановить его невозможно, т.к. он был ранее установлен в охранной зоне. Сегодня в адрес ЖКХ будет направлено письмо, чтобы решить ситуацию с демонтажем остатков забора или его монтажом.*
+*Любицкая ИО, 24.07.2023, 09:19 - работы выполнены.*
+Плотникова Екатерина Игоревна : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>12916104</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>(№21 за 2.07) Устранить яму по улице 50 лет октября - между домом 202 и 204, на выезде/въезде во дворы.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте!!! Спасибо большое что в очередной раз «сдержали»свое обещание.**
+Oblaka.dv  (#ID1911832807)
+Мы дважды уже переносили сроки по ее обращению, последний раз обещали провести работы 30.06.
+(по улице 50 лет октября ,между домом 202 и 204,на выезде/въезде во дворы  яма)
+</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Рябкова Н.А 04.07.23, 14:03***
+***В связи с неисправностью ЯР-5 и ввиду неудовлетворительных погодных условий ранее.. сроки сдвинуты до 10.07.23.*** 
+*Работы выполнены 11.07*
+*11\.07.2023. 17:09*
+*Добрый день. Приношу извинения за задержку. К сожалению, пришлось сдвинуть сроки в связи с неисправностью техники (машины для ямочного ремонта ЯР-5), а также из-за неудовлетворительных погодных условий ранее. Работы выполнены 11.07.*
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>12916138</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>(№26 за 2.07) Выполнить работы в тепловом узле по адресу Калинина, 41.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, Олег Гатауллович .**
+**К вам опять обращаются жильцы многоквартирного дома по улице Калинина 41. Несколько раз обращались к водоканалу по поводу слабого напора воды в нашем доме, до верхних этажей вода плохо доходит. Сегодня опять обратились в аварийную службу водоканала по поводу отсутствия воды на верхних этажах дома. Не отвечают. Люди жалуются, что проблема не только помыться нормально, но и сходить, извините, в туалет.**
+**Помогите, пожалуйста, решить данный вопрос.**
+**Скину скриншот, который отправлял старший дома на ватсап водоканала.**
+Ольга (#ID5298761289)
+</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 04.07.2023, 15:35**
+**Добрый день, Ольга!**
+**Управляющая компания проводит работы в тепловом узле по устранению нарушений. Работы будут выполнены в срок до 06.07.2023.**
+**Спасибо за обращение!**
+***Перов Д.А.11.07.2023, 13.23***
+***Работы выполнены?***
+***Коротченко А.В. 11.07.2023, 17:52***
+***Завтра с утра УК даст информацию.***
+**Коротченко А.В., 12.07.2023, 11:23**
+**Добрый день, Ольга!**
+**Управляющая компания выполнила работы в тепловом узле 07.07.2023. Порыв был устранен, водоснабжение было восстановлено.** 
+**По информации вашей УК у вас идёт плановое отключение горячего водоснабжения до 14.07.2023.**
+**Также единая диспетчерская дежурная  служба сообщает о том, что Ваш дом не попал в список аварийного отключения из-за порыва на сети по ул. Амурская между ул. Комсомольская и Б.Хмельницкого, поэтому вода должна появиться в вашем доме вечером 14.07.2023.**
+**Приношу свои извинения за предоставленные вам неудобства.**
+**Спасибо за обращение!**
+Коротченко А.В., 17.07.2023 14:57 (*скорректированный ответ)*
+Добрый день, Ольга!
+Управляющая компания выполнила работы в тепловом узле 07.07.2023. Порыв был устранен, водоснабжение было восстановлено. 
+По информации вашей УК у вас идёт плановое отключение горячего водоснабжения до 31.07.2023  в связи с ремонтом тепломагистрали, о чем должна была уведомить ваша управляющая компания.
+Спасибо за обращение!
+*Перов Д.А.19.07.2023, 08.39*
+*Речь в вопросе шла не о порыве, а об отсутствии воды на верхних этажах. Если эти события взаимосвязаны, так и напишите*
+Коротченко А,В.19.07.2023 16:28(скорректированный ответ)
+Добрый день, Ольга!
+Управляющая компания выполнила работы в тепловом узле 07.07.2023. Порыв был устранен, водоснабжение было восстановлено.Вероятность сниженного давление в МКД была из-за отключения электроснабжения на подстанции.
+У вас идёт плановое отключение горячего водоснабжения до 31.07.2023  в связи с ремонтом тепломагистрали, о чем должна была уведомить ваша управляющая компания. Вопрос оповещения взят на контроль.
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>12921335</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>(№45 за 3.07) Устранение провала на тротуаре в районе 50 лет Октября- Октябрьская.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Улица 50 лет Октября- Октябрьская яма**
+Иван (#ID6157266052)
+![](https://files.kaiten.io.s3.amazonaws.com/63d8a486-ada8-49a2-825e-8b1782c29442.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 04.07.23, 14:06**
+**Здравствуйте, Иван. Содержанием тротуаров занимается  подразделение ГСТК. Поручил устранить данный провал в срок до 18.07.23.**
+**Спасибо за обращение!**
+Рябкова Н.А 13.07.23, 13:06
+Работы выполнены. Фото прилагаю.
+*Любицкая ИО, 14.07.2023, 09:21*
+Здравствуйте, Иван!
+Содержанием улично-дорожной сети, в том числе и тротуаров, занимается подразделение ГСТК. Поручил устранить данный провал. На сегодняшний день все работы выполнены.
+Спасибо за обращение и неравнодушное отношение к нашему городу! Хорошего Вам дня!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>13027759</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>(№228 за 17.07) Подъезд к дворовой территории по адресу Красноармейская, 159/5, в больших ямах</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Продолжение вопроса 8 за 1.07**
+Здравствуйте, к сожалению сейчас 17 июля, и ваше поручение не выполнили.
+Антон, @IIIeIIarD (#ID497380913)
+Он писал ранее: Добрый день, подъезд к дворовой территории по адресу Красноармейская 159/5 в больших ямах, есть возможность хотя бы грейдер пустить?
+Мы отвечали: Поручил специалистам ГСТК провести мероприятия по профилированию дороги в срок до 14 июля.
+</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 17.07.23, 16:28**
+**(мероприятия в плане производства работ на 17.07.23)** 
+Коротченко А.В. 18.07.2023, 10:46
+Добрый день, Антон!
+Силами ГСТК мероприятия по профилированию дороги были выполнены 17.07.2023
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>13027733</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>(№291 за 16.07) Скосить траву на Муравьёва-Амурского</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте!**
+**Почему район Тайвани зарастает травой?!**
+**И ни кому нет до этого дела!**
+**Улица Муравьёва-Амурского вся в траве.....**
+Светланка (#ID5264066434)
+</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 18.07.2023 10:47**
+**Здравствуйте!**
+**В связи с большой загруженностью ГСТК покос травы по указанному Вами участку будет осуществлен в срок до 01.08.2023.**
+**Спасибо за обращение!**
+Перов Д.А.19.07.2023, 15.13
+*Вы не ответили на вопрос “почему”?*
+*Рябкова Н.А 19.07.23, 15:17*
+*Работы по ул.Муравьева Амурского ведутся с 18.07.23*
+*Любицкая ИО, 20.07.2023, 10:57*
+Светлана, здравствуйте!
+Погодные условия (а именно проливные дожди, которые время от времени проходят в нашем городе) позволяют сорной растительности набирать мгновенно рост. 
+Сотрудники ГСТК ежедневно проводят работы по покосу травы, но выполнить везде всё и сразу возможности нет.
+Работы по ул. Муравьева-Амурского ведутся с 18.07.2023 г. В срок до 01.08.2023 мероприятия по покосу травы на Тайвани будут проведены.
+Надеюсь на понимание!
+*Коротченко А.В., 21.07.2023 17:23*
+*работы выполнены*
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>13026599</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>(№130 за 8.07) Ямочный ремонт на Ленина-Нагорной</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ВК:**
+**комментарий к посту про светофоры от 5.07**
+++[Вла Димир](https://vk.com/atlanta_st)++
+Есть в ваших планах ровные дороги в городе? В центре хотяб уже, что там весь город. Пионерская, Шевченко, Богдана Хм. - ездить невозможно. И ещё яму заделайте на Ленина-Нагорная. на полдороги
+</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 10.07.2023, 12:08***
+**Добрый день, Владимир!**
+**Работы по ремонту автомобильных дорог в городе активно ведутся. К сожалению, выполнить всё везде и сразу нет никакой возможности (даже с точки зрения транспортной доступности - как передвигаться, если будет закрыто на ремонт очень много участков?). Всё производим постепенно. В планах на текущий год ремонта ул. Пионерской, Шевченко и Б-Хмельницкого нет, но вопрос будет обязательно рассмотрен повторно при формировании плана ремонта на 2025-2027 гг. В настоящее время за содержанием дорожного полотна на указанных участках дорог следят сотрудники ГСТК, которые по мере необходимости проводят ямочный ремонт и подсыпку.**
+**Что касается перекрестка ул. Ленина и ул. Нагорная, то в текущем году мы планируем провести там ремонт. Сейчас ведутся работы по подаче заявок, после чего будет определен подрядчик и подписан контракт на выполнение работ по ремонту дороги.**
+**Спасибо за обращение и хорошего Вам дня!**
+Рябкова Н.А 17.07.23, 14:57
+В план производства работ включен участок Ленина-Нагорная в ночь на 18.07.23 ЯР-5
+Работы выполнены 22.07.23
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>13026617</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>(№150 за 11.07) Скос травы в центре города</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, подскажите почему Центральная часть города в траве. Я думала только в нашем районе Лазо Зейская всё в траве по колено, но нет, набережная, парк напротив администрации. Проезжая мимо КПП аналогично.**
+**Что происходит, с каких пор трава на набережной в клумбах кошмар.**
+**Возле памятника пограничнику, что вообще за травяной объект.**
+Анастасия, @ximihk (#ID492104973)
+</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В. 13.07.2023 10:43**
+**Здравствуйте, Анастасия!**
+**Понимаю вашу обеспокоенность.Наш город не такой уж и маленький .Работы по скосу травы выполняются по графику. Поручил ГСТК включить в план производства работ  указанные Вами участки по скосу травы до 30.07.2023.**
+**Хорошего вам дня!**
+**
+**
+*Перов Д.А.14.07.2023, 10.42*
+*“Город не такой уж маленький…” И? Развейте мысль*
+Коротченко А.В., 14.07.2023 11:26 (*скорректированный ответ)*
+Здравствуйте, Анастасия!
+Понимаю Вашу обеспокоенность. Наш город не такой уж маленький, выполнить всё, везде и сразу возможности, к сожалению, нет.
+Работы по скосу травы специалистами выполняются по графику. Поручил ГСТК включить в план производства работ указанные Вами участки в срок до 30.07.2023.
+Спасибо за обращение и хорошего Вам дня!
+Рябкова Н.А 28.07.23, 15:15
+Работы по скосу выполнены 24.07.23.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>12930231</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>(№77 за 5.07) Работа водоразборной колонки  на ул. Октябрьская (пересечение с Островской).</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Три недели колонка на ул. Октябрьская (пересечение с Островской) не работает. Без воды сидят жильцы нескольких деревянных домов - среди них пенсионеры и дети. Сначала сказали, что нет деталей для колонки. Теперь говорят в «Водоканале», что колонки даже в плане ремонтных работ нет. Готовим и моемся дождевой водой!**
+Что делать в такой ситуации? Почему коммунальщики бездействуют три недели?
+Лилия (#ID590360119)
+</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Коротченко А.В. 10.07.2023, 15:21***
+**Здравствуйте, Лилия!**
+**В районе водоразборной колонки вышел порыв на сети водоснабжения.Поручил АКС  в срок до 17.07.2023 провести работы по восстановлению водоснабжения водоразборной колонки.**
+**Также сообщаю вам, что ближайшая колонка находится в районе Октябрьская - Шимановского.**
+**Спасибо за обращение!**
+*(справочно) порыв устранен 12.07.2023, врк до 17.07.*
+*срок изменен до 21.07.2023*
+*(справочно) сегодня должны запустить.*
+ *18\.07.2023 17:00*
+*водонапорная колонка работает, вода есть.*
+Коротченко А.В. 18.07.2023 17:11
+Здравствуйте, Лилия!
+В районе водоразборной колонки вышел порыв на сети водоснабжения.18.07.2023 работы по восстановлению водоснабжения водонапорной колонки были выполнены.
+Также сообщаю вам, что ближайшая колонка находится в районе Октябрьская - Шимановского.
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>13026607</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>(№139 за 9.07) Снос деревьев на Трудовой, 40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Решает управляйка, по предписанию до 10.07 устранить- до сих пор тишина- они в состоянии почти упал!, даже грибы уничтожают их изнутри не по дням а по часам**
+**Трудовая, 40**
+Dmitry K, @cerberDK (#ID218634908)
+</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : Коротченко А.В.13.07.2023 12:54
+Добрый день. По информации вашей управляющей компании мероприятия по сносу деревьев будут выполнены до 21.07.2023.
+Спасибо за обращение!
+*Коротченко А.В. 19.07.2023 15:42*
+*Мероприятия выполнены 18.07.2023*
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>390459</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1393100</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>13026611</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>(№148 за 11.07)  Высокая трава на площади Ленина за трибуной и памятником Ленину.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, хочется обратить внимание на совершенно дико растущую траву на площади Ленина за трибуной и памятником Ленину. Высота до пояса взрослому человеку, бурьян и сорняки.**
+Ольга Безрукова (#ID5258544749)
+</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В.,13.07.2023, 15:24**
+**Добрый день, Ольга!**
+**Дал поручение ГСТК включить в план производства  работ мероприятия по скосу травы до 20.07.2023.**
+**Спасибо за обращение!**
+*Коротченко А.В. 13.07.2023 18:12*
+*работы выполнены!*
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
         <v>397424</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Август</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C45" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>13097026</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>(№379 за 28.07) Замена трубопровода по Комсомольской, 54/2</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**1\.Добрый день! Адрес Комсомольская 54/2. Месяц отсутствует горячая вода. Сегодня должны были подключить. Сказали, что опять продлили ремонт до 11 августа! Это норма?**
+Тупиков Виктор, @Tupikov_Victor (#ID5211845511)
+2\.Амурская-Комсомольская ведутся работы в связи с чем отсутствует горячее водоснабжение, в том числе по адресу Комсомольская 54/2. С 3.07 нет горячей воды, работы продлеваются второй раз, работников на объекте практически не бывает
+Mike, @VvmikeE (#ID335570215)
+</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 31.07.2023, 14:38**
+**Здравствуйте!**
+**В Вашем районе ДГК ведет работу по замене трубопровода тепловой сети. Сроки окончания работ пришлось продлить в связи с задержкой в поставке оборудования.**
+**Работы ДГК планирует окончить к 11.08.2023.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>13086543</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>(№250 за 19.07) Спилить ветки по Театральной, 170</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Доброго дня , перед нашим зданием возле работы , растет высокое дерево , которое контактирует с лилиями электропередач. Можно ли его подрезать, чтоб не было опасности и очагов замыкания .**
+**Фото прилагаю .**
+**Адрес театральная 170 ( возле тк реал )**
+Мс См (#ID562777379)
+![](https://files.kaiten.io.s3.amazonaws.com/f5e80bae-98b1-44c6-bf07-d27b21a19942.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 21.07.2023, 10:22, справочно - ГСТК поехали на указанный адрес для осмотра.***
+*Любицкая ИО, 21.07.2023, 11:38*
+Добрый день!
+Сотрудники ГСТК выехали на указанный Вами участок. Угроз обнаружено не было. Но до начала сентября ветки спилят. 
+Спасибо Вам за неравнодушное отношение к городу.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>13086572</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>(№252 за 19.07) Отсутствие уличного освещения по улице Высокая между улиц Чайковского и Пушкина</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Хотелось бы узнать причину отсутствия уличного освещения по улице Высокая между улиц Чайковского и Пушкина. Наличие фонарей есть, а света нет, как так?**
+Алексей Ж (#ID5291819072)
+</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : | **Грачева ЕА, 24.07.2023, 18:19Здравствуйте, Алексей!Эта проблема мне известна, в настоящее время ведется работа по подбору обслуживающей организации.Освещение планируем включить к 01.09.2023.Спасибо за обращение!**  | 
+ | --- |
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>13092380</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>(№302 за 24.07) Захват земли по Театральной, 178</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ОК:**
+**Прошу извинения за позднюю запись. Хочу захватить земли кусок как на Театральной 178, или как на перекрестке Кузнечной с Заводской. А то меня отправили на межевание**
+**Трудовая с Заводской**
+**у меня есть документы 2001 года**
+**снимки из яндекса за 2020**
+Происходит захват земли.Театральная 178( вокзальная 23)
+**А суть вопроса: почему одним разрешён захват, а другим нет.**
+**Андрей Татарников**
+</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 26.07.2023, 17:52***
+**Добрый день, Андрей!**
+**Благодарю Вас за информацию! Поручил коллегам в срок до 10.08.2023 сделать выезд на указанный Вами участок для проведения обследования на предмет наличия нарушений требований земельного законодательства. При выявлении нарушений администрация примет меры к их устранению.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>13096620</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>(№340 за 26.07) Покос травы на пятой стройке</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день. Помогите решить проблему с покосом травы на пятой стройке, вдоль беговой дорожки. За сезон покос травы не проводился ни разу в районе улиц 50 лет Октября - Школьной, Чигиринский. Заранее благодарю.**
+Елена (#ID2108956869)
+</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 13:00**
+**Здравствуйте, Елена!**
+**Погодные условия (а именно проливные дожди, которые время от времени проходят в нашем городе) позволяют сорной растительности набирать мгновенно рост и выполнить везде всё и сразу возможности нет.**
+**Ежедневно при благоприятных погодных условиях (в отсутствии дождя) на мероприятия по окашиванию вдоль улично-дорожной сети города выходят работники, которые действуют планомерно, поэтому не переживайте, сорная растительность будет убрана.** 
+**Спасибо за обращение!** 
+***Перов Д.А. 31.07.2023, 14.54***
+*Срок?*
+*Грачева ЕА, 01.08.2023, 11:21 (ответ скорректирован):*
+Здравствуйте!
+Погодные условия (а именно проливные дожди, которые время от времени проходят в нашем городе) позволяют сорной растительности набирать мгновенно рост и выполнить покос везде одномоментно возможности нет.
+Ежедневно при благоприятных погодных условиях (в отсутствии дождя) на мероприятия по окашиванию вдоль улично-дорожной сети города выходят работники, которые действуют планомерно, поэтому не переживайте, сорная растительность будет убрана в срок до 20.08.2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>13097076</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>(№380 за 28.07) Очистить от мусора контейнерную площадку</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день! Спасибо Вам за то что не остаётесь равнодушными к нашим проблемам. Понимаю что последнее время часто сообщаю о таких проблемах и прошу помощи, но без Вас, мы все бессильны. И сегодня пишу тоже с просьбой о помощи. Всё тот же квартал Ленина-Чайковского-Зейская-Политехническая, месяц назад компания "Управдом" заменила нам старые металлические контейнера на новые (за это им большое спасибо), но вот убирать за собой старый разрушенный асфальт и мусор они почему-то не хотят. Наш дом решил бы этот вопрос сам, но данная минисвалка (учесть что они также до сих пор не вывезли ветки после спила деревьев) не на нашей придомовой территории, и нам остаётся только лицезреть эту кучу мусора. Заранее спасибо за помощь в решении этого вопроса.**
+Со стороны ул. Чайковского
+</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 31.07.2023, 12:55**
+**Здравствуйте!**
+**По информацию вашей управляющей компании после установки новых мусорных контейнеров мусор был частично вывезен, затем сломался автомобиль, из-за чего работу не завершили.**
+**Поручил в срок до 09.08.2023 полностью очистить от мусора контейнерную площадку.**
+**Спасибо за хозяйское отношение к своей придомовой территории.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>13095660</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>(№336 за 26.07) Освещение остановки "Динамо" п. Моховая Падь</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, есть какие-то подвижки в решении вопроса - освещения остановки "Динамо" п. Моховая Падь.**
+Тамара Смирнова, @Angel505 (#ID837866090)
+В марте мы ей писали: По моему поручению специалистами Управления ЖКХ направлено письмо в организацию, занимающуюся содержанием сетей освещения - “СЛС Благовещенск” о рассмотрении технической возможности обустройства освещения остановки “Динамо” п. Моховая Падь.
+О принятом решении сообщу Вам дополнительно.
+</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 27.07.2023, 17:54** 
+**Здравствуйте, Тамара!**
+**Специалисты обслуживающей компании установили, что технически возможно провести освещение к остановке. До 15.08.2023 будет подсчитываться смета затрат на производство работ, затем, при условии выделения денежных средств из бюджета, вопрос об установке освещения будет решаться.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>13096682</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>(№342 за 26.07) Трава на Мухина - Зейская</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте. Проблема с травой. В доль дорог стоит бурьян по пояс всё лето. Мухина -Зейская. Буду писать в администрацию президента . Весь город зарос, грязный.**
+Юлия (#ID1463476912)
+</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 13:02**
+**Здравствуйте,Юлия!**
+**Погодные условия (а именно проливные дожди, которые время от времени проходят в нашем городе) позволяют сорной растительности набирать мгновенно рост и выполнить везде всё и сразу возможности нет.**
+**Ежедневно при благоприятных погодных условиях (в отсутствии дождя) на мероприятия по окашиванию вдоль улично-дорожной сети города выходят работники, которые действуют планомерно, поэтому не переживайте, сорная растительность будет убрана.** 
+**Спасибо за обращение!** 
+***Перов Д.А. 31.07.2023, 14.59***
+***Срок!***
+***Грачева ЕА, 01.08.2023, 11:22 (ответ скорректирован):***
+**Здравствуйте!**
+**Скос травы ведется ежедневно по графику, на указанном Вами участки сорная растительность будет убрана в срок до 20.08.2023.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>13086919</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>(№256 за 19.07) Убрать аварийные деревья на территории Горпарка</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте спасибо за шикарную плащадку** 
+**Таких нужно больше.**
+Просьба обратите внимание на сухостой и безопасность пожалуйста. Явно на это должны были обратить внимание владельцы парка, но видимо не смотрят. Спасибо большое за ваш труд и внимание.
+VB, @blagavideo (#ID164827596)
+![](https://files.kaiten.io.s3.amazonaws.com/f599133e-4323-4ba0-a73a-cbc4533538f3.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Коротченко А.В., 20.07.2023 17:29***
+***Произведен осмотр данной территории. Выявлено большое количество аварийных деревьев. В срок 31.08.2023 будут проведены мероприятия по сносу аварийных деревьев.***
+Окончательный ответ: 
+**
+**
+Мищенко В.П., 20.07.2023, 17:52
+Здравствуйте!
+Я рад, что площадка Вам нравится. 
+Сотрудниками ГСТК произведён осмотр территории Городского парка. Выявлено большое количество аварийных деревьев. В срок 31.08.2023 будут проведены мероприятия по их сносу.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>13224917</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>(№410 за 31.07) Очистка стоянки и прилегающей территории по ул.Зейская, д.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, Олег Гатауллович. Ваше поручение, данное ГСТК по очистке стоянки и прилегающей территории по ул.Зейская, д.61, которое должно было быть выполнено до 28.07.2023, НЕ ВЫПОЛНЕНО.**
+Карина, @KarinaVlasenkoo (#ID1804870200)
+</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 02.08.23, 16:35**
+**Здравствуйте. В связи с большой загруженностью ГСТК график работ может смещаться. Работы включены в план со сроком исполнения до 04.08.23.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>13224928</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>(№407 за 30.07) Бежит вода на Ленина, 27. Порыв.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**1)Ленина, 27. Вода бежит уже месяц**
+Aleksandr Parshin (#ID1509117567)
+2)Олег Гатауллович доброе утро!
+Пишу вам из нашего любимого города Благовещенска с улицы Ленина 25.
+У нас есть проблема которая вытекает из земли холодным чистым гейзером прям в ливневую конализацию. Холодная вода течет уже второй месяц, на звонки в аварийку сообщают,что о проблеме знают. В ответ ни чего не происходит. На асфальте начала появляться тина, вообщем превратимся в болото. Проблема между МАПом и домом Ленина 25.
+Константин, @Gruzovoz28 (#ID1683340134)
+3)Здравствуйте. Вы меня извините, но уже прошло и 6 и 21 и даже 30 число, а вода как бежала так и бежит, порыв как был так и есть и что кто то его собирается устранять даже и намека нет. Сегодня уже 1 августа уже 1,5 месяца бежит вода во дворе вода ходить невозможно.
+Вы можете подскажите к кому еще можно обратиться чтобы наконец-то устранили порыв? Потому что в АКС дозвониться невозможно
+🌝 👏🏼, @olyako18 (#ID479880319)
+</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 02.08.2023, 12:19**
+**Здравствуйте!** 
+**На инженерных сетях к Вашему дому образовался порыв, который будет устраняться специалистами АКС. Планируемый срок окончания мероприятий - 10.08.2023.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>13092634</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>(№307 за 24) Очистка от мусора территории на углу улиц Калинина и Октябрьская</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**В свете последних новостей вопрос: будут ли когда-нибудь заниматься сквером на углу улиц Калинина и Октябрьская?**
+Andrey, @se_an_ko (#ID2005419419)
+</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 26.07.2023, 16:50**
+**Здравствуйте, Андрей!**
+**Указанная Вами территория сквером не является, это просто зеленая зона, которая обслуживается сотрудниками ГСТК. В обслуживание входит покос травы и уход за зелеными насаждениями. Такие мероприятия проводятся на постоянной основе.** 
+**Кроме того, в срок до 10.08.2023 поручил провести уборку территории от случайного мусора.**
+**Спасибо за обращение!**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>13096528</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>(№337 от 26.07) Ремонт дорожного полотна</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>**ТГ:**
+**Здравствуйте, 2 год не производится ямочный ремонт ул. Ленина от ул. Политехнической до ул. Пушкина. Весь асфальт в разрывах и ямах, особенно по направлению от Театральной к Пушкина. Возле перекрестков Политехнической и Чайковского ехать вообще невозможно. Так же по ул. Лазо от ул. Ленина до ул. Амурская есть сдвоенные люки канализации, грузовики ездиющие с торгового порта разбили асфальт возле люков, водителям приходится выезжать на встречную полосу либо заезжать на левую полосу половиной машины чтобы объехать ямы возле канализациоеных люков**
+Олег, @Oleg28russs (#ID1397874009)</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 12:50**
+**Здравствуйте, Олег!**
+**Поручил сотрудникам ГСТК провести мероприятия по ремонту дорожного полотна в указанных Вами районах в срок до 30.08.2023.**
+**Спасибо за обращение**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>13088069</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>(№281 за 21.07) Убрать кабельные линии в районе картодрома Юбилейный</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день! Наблюдаем данную ситуацию уже долго время. В районе картодрома юбилейный, возле велодорожки наклоненный столбы электропередач. Один и вовсе завалился, провод один разорвался и лежит на велодорожке. Никто не исправляет данное происшествие. Прошу повлиять на ситуацию. Это небезопасно**
+Ekaterina, @kate_guh (#ID1370163929)
+![](https://files.kaiten.io.s3.amazonaws.com/49b9f706-c91a-4553-82ee-c15eb2368bc8.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Здравствуйте, Екатерина!**
+**Линия электропередач находится без напряжения более трех лет.Специалисты сетевой организации уже демонтировали наклоненные опоры и до 28.07.2023 уберут кабельные линии.**
+**Спасибо за обращение!**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>13087618</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>(№269 за 20.07) Провести очистку системы ливневой канализации по ул. Новой между ул. Амурского и ул. Горького</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте,у нас после 15 мин дождя,вся вода с улицы в огород пошла,колодцы полные из ливневки вода бежит наружу. Решитт проблемы мы не можем.Новая 33 кв.2**
+подскажите ,пожалуйста,если у нас возникнет такая же проблема,куда нам обращаться,т.к.мы звоним,нвс отправляют от однго к другому ,...а вобщем у нас уже гниют в доме венцы,плесень в полполье,и когда решат эту проблему!В огороде все проподает,а ведь столько сил времени и денег уже потрачено и нервов,подполье невозможно просушить т.к и так душно.....да +электроэнергия дорогая,весной мы ч.з это уже прошли но проблема осталась,а проблема появилась после того как сделали новую ливневую систему!!!!!
+Ольга Тесленко, @OlgaTes (#ID5158947471)
+![](https://files.kaiten.io.s3.amazonaws.com/4f763df4-3165-4d45-b906-102fe7c7bbd3.jpg)
+![](https://files.kaiten.io.s3.amazonaws.com/fd733f14-5c6c-4b2d-b223-5ff391ab2f62.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Грачева ЕА, 25.07.2023, 15:43***
+**Здравствуйте, Ольга!**
+**Поручил сотрудникам ГСТК провести очистку системы ливневой канализации по ул. Новой между ул. Амурского и ул. Горького в срок до 10.08.2023.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>13152307</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>(№ 343(1) за 26.07) Качели и свет на территории около Харбина</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день.**
+**Хочется узнать, когда вернуть качели и свет на территорию обновленного фонтана около Харбина и ТЦ От и До в микрорайоне. Территорию обновили - поустанавливали лавочки, качели с навесами, фонарей, лампочек море. Прошло некоторое время - больше половины качелей демонтировали, свет весь выключили (зачем тогда нужно было столько фонарей втыкать???). Прошло ещё некоторое время - качели как убрали, так и не вернули, "две" лампочки включили (зачем тогда нужно было столько фонарей втыкать???).**
+**Когда вернуть качели и свет?**
+**P.S. Отдельная боль - насест для голубей над лавочками вокруг фонтана. Зачем? Почему? Для чего? От солнца не защищает. От дождя тоже. Может есть возможность положить сверху на навес поликарбонат например, чтобы эта конструкция хоть какую-нибудь функцию выполняла?**
+Ксюша (#ID563114838)
+</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева Е.А., 02.08.2023, 16:16**
+**Здравствуйте!**
+**Территория сквера “От и До” находится на содержании индивидуального предпринимателя.** 
+**Качели были демонтированы в связи с тем, что граждане, отдыхающие в сквере, их сломали. Ремонт требует закупки материалов и сварочных работ, поэтому возвращены они будут не ранее 31.08.2023.**
+**Что касается освещения, то вышел из строя подземный кабель, на его ремонт также требуется немало затрат и времени. Работники постараются окончить ремонт также к 31.08.2023.**
+**Что касается навеса, то он установлен согласно проекту и изменение его конструкции невозможно.**
+**При этом территория сквера ежедневно очищается от мусора и продуктов жизнедеятельности птиц дворником.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>13097186</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>(№389 от 28.07) Дефекты на площадке в горпарке</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**1)Добрый день!**
+**Новая площадка в городском парке, есть дефекты, но площадка работает**
+Алексей З (#ID5343813736)
+2)Новую площадку за драмтеатром открыли на день защиты детей много поломок возможно ещё действует срок гарантийного ремонта пусть бы подрядчик устранил недочёты
+Александр (#ID1202700096)
+![](https://files.kaiten.io.s3.amazonaws.com/3521c8fa-71fb-429f-9826-5dc7c7e1637f.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 31.07.2023, 10:13***
+**Добрый день!**
+**Благодарю Вас за информацию!**
+**В срок до 15.08.2023 подрядчик устранит дефекты в рамках гарантийных обязательств.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>13152508</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>(№351 за 26.07) На перекрёстке Шевченко-Ломоносова провал грунта</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте! На перекрёстке Шевченко-Ломоносова сильный провал грунта возле коллектора (по ул. Ломоносова в сторону Богдана Хмельницкого. Обрушение может произойти в любой момент, особенно если проедет тяжёлая спецтехника. Просьба отправить на место провала оперативные службы.**
+@stalker1979, @maxstalker1979 (#ID1399063440)
+</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева Е.А., 01.08.2023, 12:55**
+**Здравствуйте!** 
+**Специалистами АКС было проведено обследование провала на перекрестке улиц Шевченко-Ломоносова, технологического нарушения на инженерных сетях нет. Просадку дорожного полотна ГСТК устранит в срок до 14.08.2023.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>13086134</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>(№237 за 18.07) Ремонтное профилирование пер. Дальневосточного</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, живём район Тайваня, хотелось бы узнать почему центральную улицу Кузнечную прогребают дорогу грейдером , а в переулки и не заходит. Дорога вся в ямах..., конкретно переулок Дальневосточный,**
+**И ещё очень пыльно, может обрызгивать центральные улицы спасибо заранее**
+**Удачи Вам и успехов в работе**
+Валентина, @Vallintinka (#ID2015267546)
+</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Рябкова Н.А 18.07.23, 15:49***
+***Работы по грейдированию включены в план производства на 19.07.23.*** 
+*Грачева ЕА, 24.07.2023, 15:56* 
+Здравствуйте, Валентина!
+Работы по ремонтному профилированию указанного Вами района были проведены 19.07.2023.
+В первую очередь работы проводятся на участках дорог с интенсивным движением, в районе социально значимых объектов, автобусные маршруты.  В связи с большим объемом работ в указанном Вами районе обеспыливание производится  один раз в три дня.
+Спасибо за обращение! 
+*Перов Д.А. 26.07.2023, 14.28*
+*Женщина спрашивает конкретно про пер. Дальневосточный*
+*Грачева ЕА, 27.07.2023, 17:08 (ответ скорректирован):*
+Здравствуйте, Валентина!
+Ремонтное профилирование пер. Дальневосточного будет проведено в срок до 10.08.2023. 
+В первую очередь работы проводятся на участках дорог с интенсивным движением, в районе социально значимых объектов, автобусные маршруты.  В связи с большим объемом работ в указанном Вами районе обеспыливание производится  один раз в три дня.
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>13152521</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>(№373 от 27.07) Ямочный ремонт по ул. Садовой</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте. Извините пожалуйста, что в столь позднее время обращаюсь к Вам Очень прошу Вас, проехать и лично посмотреть участок дороги по ул. Садовая, в районе Астрахановки. Остановка между пер.Ученический и ост. Садоваяэто ведь просто УЖАС...Яма, которую объехать не возможно!!! Постоянно пробивают колёса!**
+Владимировна Я (#ID5016577027)
+</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 01.08.23, 13:27**
+**Здравствуйте. Мероприятия по ямочному ремонту указанного Вами участка уже включены в план производства работ. Срок исполнения до 31.08.23**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>13086228</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>(№246 за 19.07) Неработающие фонари в сквере по Красноармейской, 61</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день!Можно ли узнать ответ на вопрос:когда загорятся фонари в сквере по Красноармейская 61.?(С момента установления в общей сложности горели 3,5 месяца.).**
+Елена Соловей (#ID5259681989)
+</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 24.07.2023, 14:47**
+**Здравствуйте, Елена!**
+**В настоящее время закончился срок контракта, заключенного с обслуживающей организацией, по этой причине освещение временно отключено.  Сейчас готовятся документы на заключение нового контракта.**
+**Плановый срок включения освещения - 03.08.2023.**
+**Спасибо за обращение!**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>13096796</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>(№359 за 27.07) Порыв на  Красноармейской, 74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте Уважаемый Олег Гатауллович прошу вас разобраться с проблемой,дело в том что у нас в центре города уже месяц нет горячей воды по причине какой то поломки ,службы Акс раскопали и бросили участок дороги и 22 дня к нему не прикоснулись это по улице красноармейская 74 на звонки отвечают ,что есть сложность,а какая это не ваше дело... Пожалуйста помогите в нашем вопросе хотелось бы знать хотя бы сроки исполнения работ.**
+Антон Свистильник (#ID5878874387)
+</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 16:06**
+**Здравствуйте, Антон!**
+**Дело в том, что вышел порыв на тепловых  сетях к многоквартирному дому по ул. Красноармейская, 74. Работы проводили специалисты АКС. 28.07.2023 горячее водоснабжение было подключено.  До 02.08.2023 котлован будет засыпан. До 10.08.2023 благоустройство будет полностью восстановлено.** 
+**Что касается обустройства контейнерной площадки и тротуаров для домов частного сектора, то в связи с недостаточностью доходных источников и дефицитом городского бюджета все расходы на 2023 год сокращены.**
+**Вопрос установки рассмотрим при выделении финансирования на данные цели.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>13027694</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>(№203 за 14.07) Устранение дефектов на площадке Плодопитомника</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день Олег Гатауллович!!! Беспокоит вас Плодопитомник.После серии сильных дождей у нас песок с площадки где стоят тренажеры поплыл.**
+**Как думаю видно бетона не много поэтому тренажеры просто выломать могут.Можно как-то это восстановить!?**
+Татьяна, @IGRUSHKIBLAG (#ID1884939268)
+![](https://files.kaiten.io.s3.amazonaws.com/db6e6d75-30e8-441f-afac-3097760707d1.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Любицкая Ирина Олеговна: Не все дефекты устранены в связи с большим объемом работ. В срок до 15.08. обещают всё устранить.
+Плотникова Екатерина Игоревна : ***Любицкая ИО, 17.07.2023, 09:26***
+**Добрый день, Татьяна!**
+**Благодарю Вас за информацию!**
+**Подрядная организация устранит дефекты до конца текущего месяца.**
+**Хорошего Вам дня.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>13086219</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>(№242 за 19.07) Скосить траву на перекрестках ул. Красноармейская - Больничная, Амурская -Больничная, Зейская-Больничная</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день, на перекрёстках красноармейская-больничная, амурская-больнисная, зейская-больничная не подстрижены газоны, трава высокая, при проезде перекрёстка приходится выезжать на перекрёсток, чтобы убедиться о отсутствии автомобилей, создаётся аварийная ситуация, прошу принять меры.**
+Ушаков Егор (#ID545879373)
+</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 21.07.23, 16:24**
+**Здравствуйте, Егор. Работы по скашиванию травы ведутся ежедневно согласно графику. Поручил ГСТК в срок до 10.08.23 включить указанный Вами адрес в  план производства работ.** 
+**Спасибо за обращение.**
+*Перов Д.А. 24.07.2023, 10.36*
+*То есть, прежде этого адреса не было в плане работ?*
+*Грачева ЕА, 24.07.2023, 17:32 (ответ скорректирован):*
+Здравствуйте, Наталья!
+Покосом травы в нашем городе занимается ГСТК. Ежедневно при благоприятных погодных условиях (в отсутствии дождя) на мероприятия по окашиванию вдоль улично-дорожной сети города выходят работники, которые действуют планомерно, поэтому не переживайте, сорная растительность на перекрестках ул. Красноармейская - Больничная, Амурская -Больничная, Зейская-Больничная будет убрана в срок до 10.08.2023.
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>13086244</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>(№247 за 19.07) Ямочный ремонт дорожного полотна по улицам Павлика Морозова, Пограничной и Садовой</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Два дня назад пришлось съездить а район астрахановка, очень удивились состоянию дорог, не были там год и за этот год дороги пришли в ужасное состояние, сплошные ямы и глубокие, почему не обращается внимание на этот район города, , ехали туда по ул Чайковского и там примерно от туберкулёзного диспансера одна полоса дороги вся пошла волнами и провалами.**
+Ольга (#ID5024970639)
+</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Здравствуйте, Ольга!**
+**Поручил сотрудникам ГСТК провести  ямочный ремонт дорожного полотна по улицам Павлика Морозова, Пограничной и Садовой в срок до 18.08.23** 
+**Что касается улицы Чайковского, то там требуется капитальный ремонт, проведение которого возможно по мере выделения денежных средств.**
+**Спасибо за обращение!**
+Рябкова Н.А 28.07.23, 16:00
+Работы по ямочному ремонту ул.Павлика Морозова, 8 ведутся с 27.07.23
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>13086271</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>(№248 за 19.07) Скосить траву в районе Институтской, 16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**День добрый! Проблема не первого года.Заброшенный участок между домами. Институтская 14 а за домом.Никто не убирает и косит ! Бурьян ростом с человека. Заброшенная детская площадка, никому ниче не нужно.**
+Светлана Буевич, @buevichbuh (#ID1031587497)
+![](https://files.kaiten.io.s3.amazonaws.com/47bdb50d-52e8-4774-83c2-da40a6bb53a3.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 25.07.2023, 11:24**
+**Здравствуйте, Светлана!** 
+**Участок местности о котором Вы говорите относится к дому № 16 по ул. Институтской, поэтому в срок до 31.08.2022 силами управляющей компании “Жил-Стимул” он будет приведен в порядок, траву покосят и мусор уберут.** 
+**Спасибо за обращение!** 
+***Перов Д.А. 26.07.2023, 14.37***
+***Силами какой управляющей компании? Не слишком большой срок - до 31 августа?***
+***Грачева ЕА, 26.07.2023, 15:52 (справочно):***
+***УК “Жил-Стимул”. Они просили поставить такой срок так как им нужно искать подрядчика на покос травы.*** 
+*Перов Д.А. 27.07.2023, 17.03*
+*Не годится. Больше месяца на покос травы. Хорошо, что не конец сентября.*
+*Грачева ЕА, 27.07.2023, 17:15 (ответ скорректирован, в УК информация о сокращении сроков передана):*
+Здравствуйте, Светлана! 
+Участок местности, о котором Вы говорите, относится к дому № 16 по ул. Институтской, поэтому в срок до 15.08.2022 силами управляющей компании “Жил-Стимул” он будет приведен в порядок, траву покосят и мусор уберут. 
+Спасибо за обращение!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>13087427</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>(№260 за 20.07) Ямочный ремонт по ул.Ленина в Верхнеблаговещенском</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте. в газете весной 2023 года было объявлено о капитальном ремонте ул Ленина в Верхблаговещенске 2 ая деревня в плане ремонта дорог 2023г. Почему Вы тогда отвечаете что ближайшая реализация отодвигается на 2024-2025г. Я Вам также писал в 2022 году Вы ответили что будет делаться в 2023 почему нас постоянно отодвигают. План ведь был утвержден и об этом было объявлено**
+Сергей (#ID581689089)
+</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 20.07.2023, 14:47***
+**Добрый день, Сергей!**
+**В предварительном плане ремонта данный участок есть, это верно. Но в утвержденном плане на текущий год ул. Ленина в Верхнеблаговещенском нет. На официальных источниках города данной информации соответственно не было.**
+**В настоящее время рассчитаны сметы на производство работ. Данный участок включим в план на последующие годы. По возможности, конечно, произведем работы как можно скорее.**
+**Сейчас за состоянием дорожного полотна следят сотрудники ГСТК и по мере необходимости производят подсыпку ям. В срок до 13.08.2023 будет  выполнен ямочный ремонт машиной Яр-5 (такой срок указан в связи с поломкой техники).**
+**Надеюсь на понимание.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>13089406</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>(№281 за 22.07) Провести ремонтное профилирование по пер. Зеленому</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ВК:**
+**Здравствуйте! Я по такому вопросу, в прошлом году очень хорошо разравнивали дорогу грейдером по адресу пер зелёный Тайвань, в этом году ничего, одни ямы, ездить ужасно, в чем причина? Почему в этом году ничего не предпринимается?**
+**Второй вопрос**
+**Дорога на Белогорье через Моховую Падь, очень хотелось бы чтобы её сделали, очень удобно и быстро проезжать, но очень пыльно, грязно, после дождя и в снег не возможно проехать по ней.**
+++**[Анастасия Ткаченко](https://vk.com/id700710559)**++
+</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 24.07.2023, 15:29**
+**Здравствуйте, Анастасия!**
+**Поручил сотрудникам ГСТК провести ремонтное профилирование по пер. Зеленому в срок до 15.08.2023.**
+**Асфальтирование дороги Моховая Падь - Белогорье в текущем году не планируется в связи с ограниченными финансовыми возможностями.**
+**Спасибо за обращение!**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>13096848</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>(№361 за 27.07) Ремонтные работы на инженерных сетях по Ленина, 205/11</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ВК:**
+**Здравствуйте Олег Гатауллович, я жительница дома на улице Ленина 205/11. Хочу попросить Вас разобраться в очередной раз с нашей Управляющей компанией. Какое то безобразие, а не управляйка в позапрошлом году мы сидели без воды все лето вплоть до отопительного сезона. В прошлом году все было по графику, в этом году начинается продолжение позапрошлого года отключили воду горячую по графику с 3.07 до 14.07. А 14.07 скинули объявление что они ни чего не успели сделать и воды не будет до 28.07. А сейчас повешали объявление что воды не будет до 11 августа. Очень хочется узнать нам воду дадут вместе с отопительным сезоном? Или что нам делать как жить? Или уже в суд нужно идти?**
+++**[Наталья Милованова](https://vk.com/id321712517)**++
+</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 15:48**
+**Здравствуйте, Наталья!**
+**В Вашем районе ремонтные работы на инженерных сетях проводят ДГК. Эти работы продлятся до 11.08.2023, .**
+**Прошу проявить немного терпения, так как эти работы направлены прежде всего на обеспечение нормативного теплоснабжения в отопительный период, снижения риска возникновения аварийных ситуаций, устранения технологических нарушений.**
+**Приношу свои извинения за предоставленные Вам временные неудобства.**
+**Спасибо за обращение!** 
+*Перов Д.А. 31.07.2023, 15.15*
+*Не нужно воды и общих фраз! Людям трижды переносили включение. Почему?*
+*Грачева ЕА, 01.08.2023, 11:27 (ответ скорректирован):*
+Здравствуйте!
+В Вашем районе ремонтные работы на инженерных сетях проводят ДГК. Объем мероприятий очень большой: производится замена труб тепловых сетей, запорной арматуры, компенсаторов, кроме того, в процессе ремонта возникли задержки в поставке оборудования, поэтому сроки окончания несколько раз переносились. Специалисты постараются закончить работы к 11.08.2023.
+С Вашей управляющей компанией проведена профилактическая работа о своевременном информировании граждан и планируемых отключениях.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1323643</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>13092525</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>(№306 за 24.07) Протекает крыша в доме по Ленина, 207/1</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый вечер. Более 10 лет протекает крыша в доме ленина 207/1. Управляющая компания управдом не принимает мер вообще. На вопросы жильцов только хамят . Так после каждого дождя**
+Verner Irina, @Iriska22883 (#ID1396590930)
+</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 26.07.2023, 16:34**
+**Здравствуйте, Ирина!**
+**Уточнил информацию в Вашей управляющей компании и выяснил, что сейчас ожидается поставка необходимого для ремонта крыши материала (жидкой резины).**
+**Мероприятия планируют завершить к 31.08.2023.**
+**Спасибо за обращение!**
+*Справочно:  такой срок указан по просьбе УК “Управдом” с учетом форс-мажорных обстоятельств.*
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1323644</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>13092301</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>(№298 за 24.07) Ямочный ремонт по Пролетарской-Шевченко и Политехнической-Амурской</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день! Глобальных ремонтов дорог в этом году не планировали, а ямочный ремонт тоже делать не будут? Местами на проезжей части не ямы, а траншеи... Ну правда, иногда смотришь и удивляешься тому, в каком состоянии у нас дороги. Да везде все и сразу не охватить ремонтом, но хоть заплати можно положить?**
+Например: Пролетарская-Шевченко на повороте огромная яма. Политехнническая-Амурская тоже посередине дороги яма, которую люди заложили кирпичем, что не очень то спасает ситуацию....
+Ната (#ID5123139288)
+</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Здравствуйте!**
+**Ямочный ремонт на дорогах города как в центральных его районах, так и в отдаленных  выполняется силами сотрудников ГСТК с мая текущего года по настоящее время.**  
+**Что касается  ремонта участков по Пролетарской-Шевченко и Политехнической-Амурской, то он будет выполнен в срок до 28.07.2023.**
+**Спасибо за обращение!** 
+**
+**
+*Справочно:*
+*Мероприятия выполнены.*
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1323644</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>13087534</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>(№ 263 за 20.07) Скосить траву вдоль улицы Островского</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, по нашему адресу тополиная 82 не могут скосить траву вдоль улицы островского. ГСТК в июне приезжали, начался дождь и потом не вернулись. Сейчас уже 3 недели не можем добиться скоса, при выезде со двора плохо видно движение транспорта по дороге.**
+Юлия, @juliobh (#ID734335341)
+</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 21.07.2023, 10:11***
+**Добрый день, Юлия!**
+**В связи с большим объемом работ у сотрудников ГСТК срок по скосу травы сдвинулся практически на месяц. До 01.08.2023 трава по указанному Вами адресу будет скошена.**
+**Спасибо за обращение.** 
+Рябкова Н.А 28.07.23, 15:56
+Работы по скосу выполнены 27.07.23
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1323644</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>13087548</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>(№266 за 20.07) Скосить траву по адресу Тополиная, 82.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, по нашему адресу тополиная 82 не могут скосить траву вдоль улицы островского. ГСТК в июне приезжали, начался дождь и потом не вернулись. Сейчас уже 3 недели не можем добиться скоса, при выезде со двора плохо видно движение транспорта по дороге.**
+Юлия, @juliobh (#ID734335341)
+![](https://files.kaiten.io.s3.amazonaws.com/b442dc94-b4a1-4e73-b932-441fea5689c8.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 21.07.2023, 10:11***
+**Добрый день, Юлия!**
+**В связи с большим объемом работ у сотрудников ГСТК срок по скосу травы сдвинулся практически на месяц. В срок до 01.08.2023 трава по указанному Вами адресу будет скошена.**
+**Спасибо за обращение.** 
+Рябкова Н.А 28.07.23, 15:56
+Работы по скосу выполнены 27.07.23
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1323644</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>13088021</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>(№ 271 за 21.07) Поврежден флаг РФ</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, уважаемый Олег Г.! Вчера гуляя по набережной, восторгалась нашим флагом. Сняла видео. Сегодня пересматриваю и вижу, что верхняя часть края белой полосы надорвана...верхний край справа**
+ЕК, @Pogoda_yasnaja (#ID928533903)
+</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 21.07.23, 16:42**
+**Здравствуйте. Обслуживанием флагштока занимается ГСТК.  К сожалению, из-за ветровых нагрузок, кромка флага периодически надрывается, в связи с чем его приходится подшивать регулярно. Поручил произвести замену флага в срок до 25.07.23.** 
+**Спасибо за обращение!**
+Рябкова Н.А 24.07.23, 14:03
+Замену  флага произвели.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
         <v>1323645</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Просрочено1</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12690108</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Тест карта</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>13086590</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>(№254 за 19.07) Уборка территории по Игнатьевскому шоссе, 10/4</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день! Очень странно, конечно, о таком писать, но... Компания "Сервер" провела восстановительные работы на провале нашего дома (Игнатьевское 10/4), собрала свои "вещи", инструменты, деревянный туалет, но решила оставить жителям и, в принципе, всем прохожим, идущим на остановку - вот такой неприятный сюрприз в виде куч !**
+**Неужели нельзя было это убрать за собой или закопать как-то это безобразие! "Аромат" разносится ветром** 
+Xism, @AXism (#ID5273628748)
+![](https://files.kaiten.io.s3.amazonaws.com/6a94bbf1-9294-43d7-adb0-a837737d77e5.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 24.07.2023, 15:59**
+**Здравствуйте!**
+**С руководством и сотрудниками организации проведена профилактическая работа о недопущении впредь подобных ситуаций!**
+**В срок до 28.07.2023 указанная территория будет убрана!**
+**Спасибо за обращение!**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1323645</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>13092456</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>(№304 за 24.07) Провал грунта по Игнатьевское ш., д. 10/4</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день! Я проживаю по адресу: г. Благовещенск, Игнатьевское ш., д. 10/4, 1 подъезд.**
+**Ранее обращались по вопросу провала грунта и обвала дорожного покрытия напротив 1 подъезда. В июне-июле 2023г. велись работы. На текущий момент в СМИ отчитались, что работы завершены.**
+**К сожалению, сейчас обвал грунта продвигается непосредственно уже на тротуаре и влечёт последствия для фундамента дома. Прошу принять меры по качеству работ по решению проблемы, повлекшей обвал грунта, т.к. по сути проблема осталась. Фото по состоянию на 24.07.2023г. прилагаю.**
+Наталья (#ID343474747)
+![](https://files.kaiten.io.s3.amazonaws.com/3b520ec1-c620-4ce8-8bb2-46ded70fdc90.jpg)
+</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 27.07.2023, 15:47**
+**Здравствуйте, Наталья!**
+**На сегодняшний день подрядной организацией  выставлено ограждение в месте обвала грунта. 28.07.2023 планируются работы по снятию и вывозу тротуарной плитки.  31.07.2023  будут  выполняться работы по планировке территории.** 
+**Затем, в течение трех  недель будет  проводиться наблюдение и подсыпка. Только после этого  после этого подрядчик заасфальтирует данный участок и уложит плитку.**
+**Спасибо за обращение!**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1323645</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>13026614</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>(№149 за 11.07) Смазка качель в сквере Бабочка</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>**ТГ:**
+**Добрый день!! Как решить вопрос смазки качель в сквере Бабочка!! В 12 ночи такие звуки!! ГСТК телефон не работает. А управление ЖКХ города на сайте пишет что не работает!!**
+Борис (#ID5502810939)</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 13.07.23, 15:31**
+**Здравствуйте, Борис! Поручил сотрудникам ГСТК смазать качели в срок до 15.07.23. Благодарю Вас за неравнодушное отношение к жизни города. Хорошего Вам дня.**
+**18\.07 он написал снова:**
+Опять про смазку качелий на сквере Бабочка, как скрепели, так и скрепят!! Что то сотрудники ГСТК не торопятся выполнять Ваше поручение!! Могу прислать запись этих звуков!!! Обещали смазать до 15.07
+Борис (#ID5502810939)
+Наш ответ: **Коротченко А.В., 19.07.2023 17:42**
+**Здравствуйте, Борис!**
+**Сотрудники ГСТК осуществляли выезд в сквер 15.07.2023. Поручил выехать повторно для выяснения причин скрипа в срок до 21.07.2023.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1323645</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>13092812</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>(№326 за 25.07) Очистка контейнерной площадки около ТЦ «Мебельная ярмарка»</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый вечер!**
+**На протяжении длительного времени пытаемся бороться с собственником ТЦ Мебельная ярмарка, расположенного по адресу Мухина 110а. Септик не откачивается своевременно, и мы дышим этими ароматами неделями, мусор не вывозится. Мусор состоит из картона. Если загорится одна коробка, вспыхнет всё. Прошу Вас, примите меры.**
+Анастасия Киселёва (#ID5397079111)
+</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Здункевич О.В., 28.07.2023, 17.50**
+Здравствуйте, Анастасия!
+По информации собственника ТЦ «Мебельная ярмарка» контейнерная площадка очищена, крупногабаритный мусор будет вывезен  согласно графику 31.07.2023.
+В настоящий момент запахов от септика нет, по вторникам в соответствии с графиком септик будет откачиваться машиной. Данный вопрос на контроле руководителя предприятия. 
+Кроме того проведена оплата крышки для септика, в ближайшее время она будет установлена.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>397424</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1323645</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>13095297</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>(№330 за 26.07) Ремонтное профилирование ул. Пограничная (Астрахановка)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ВК:**
+**Уважаемый Олег Гатауллович, здравствуйте**
+**К Вам обращаются жители ул. Пограничная, дд. 153 , 155,157,163 Просим обратить внимания на состояние нашей дороги и подъезда к контейнерам с ТБО. Видео снято после двух солнечных дней. Во время дождя, по нашей улице, практически невозможно пройти и остаться в чистой обуви, а к контейнерам и подавно не подойти. Грейдеры ходят ,регулярно объезжая наш участок, мотивируя большими ветками на деревьях, которые мешают им проезжать. Прошлым летом машины ГСТК отказывались забирать БО, потому, что увязали колёсами в луже. Просим прощения за беспокойство, просто уже не знаем, куда обратиться. Вы нам помогли решить проблему с мостом, может быть и в этот раз поможете? Нам не нужен асфальт. Только засыпать эту бездонную лужу, да чтобы грейдер не объезжал наш скромный уголок. Заранее благодарны - жители ул. Пограничная**
+++**[Евгения Семенова](https://vk.com/id710505664)**++
+</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 27.07.2023, 17:39**
+**Здравствуйте, Евгения!** 
+**Поручил сотрудникам ГСТК выполнить ремонтное профилирование ул. Пограничная (Астрахановка) в районе домов № 111 – 153 – 165 в срок до 01.08.2023.**
+**Спасибо за обращение!**
+</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dist/output.xlsx
+++ b/dist/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,78 +436,64 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Board Id</t>
+          <t>Board Title</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Board Title</t>
+          <t>Column Title</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Column Id</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Column Title</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cards Id</t>
+          <t>Members</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>Comments</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>390459</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1312627</v>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>(№30 за 2.07) Уборка спортивной площадки на Игнатьевском шоссе, 10/4.</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>Просрочено</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12916207</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(№30 за 2.07) Уборка спортивной площадки на Игнатьевском шоссе, 10/4.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>| \*\*ТГ:Здравствуйте!В районе домаИгнатьевское шоссе 10/4Вот уже год установили трек иБольшую спортивную площадкуЭто хорошая новостьДети со всей округи собираются и занимаются спортомЧто приветствуется во всё времена.Но!!!Эта городская территория со спортивным комплексом ни разу не убиралась!!! Нет ни одного контейнера для сбора мусора.Надо заметить всё гости едут с аэропорта по нашему шоссе.И мусор скоро будет виден с высоты полёта.ПросьбаОрганизуйте уборку общественного места и установите контейнеры для сбора мусора.Мы ведь хотим видеть воспитанных людей.Благодарю за понимание.
  | Елена Елена (#ID6123522697)\*\* | 
  | --- |</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Перов Дмитрий Александрович, Темнюк Игорь Дмитриевич, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 07.07.2023, 09:40, справочно - площадка еще не передана, урны контрактом не предусмотрены. В настоящее время подрядчик на другом объекте в Свободном, 17.07.2023 планирует быть в Благовещенске.***
 *Любицкая ИО, 11.07.2023, 09:11*
@@ -522,38 +508,34 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>390459</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1312627</v>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(№78 за 5.07) Ямочный ремонт на нескольких участках.</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>Просрочено</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>12947481</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(№78 за 5.07) Ямочный ремонт на нескольких участках.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>**ТГ:**
 **Добрый день! Когда у нас в городе будут делать ямочный ремонт на дорогах или хотя бы подсыпать ямы. Например: ул. Мухина между Пролетарской и Заводской; ул. Студенческая поворот на садик , который расположен по адресу Игнатьевкое шоссе 12/5; ул , Студенческая, где проходят трубы ТЭЦ ( ориентировочно между Студенческая 13 и Студенческая 15)**
 ОБ (#ID2102183971)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Добрый день!**
 **Сотрудники ГСТК ежедневно выполняют мероприятия по содержанию улично-дорожной сети города в соответствии с утвержденным графиком.**
@@ -564,31 +546,22 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>390459</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1312627</v>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(№101 за 6.07) Ямочный ремонт</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>Просрочено</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>13026579</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(№101 за 6.07) Ямочный ремонт</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте! Уже несколько раз оставляла заявку на выкос травы по улице Кантемирова. Видимости, при выезде с прилегающей дороги, просто нет. Трава с человеческий рост. Сейчас каникулы, дети бегают, и приходится выезжать на дорогу, чтобы убедиться в отсутствии транспорта. Безобразие и полное халатное отношение к своей работе! И ещё вопрос? Сколько будет продолжаться этот бесконтрольный ямочный ремонт? Смесь заливают прямо в лужи, заплатку сделают, а в 20 см ямы не заделают (ул.Дорожников), тротуаров нет, везде трава. Почему не контролируют работу горе мастеров. Улица Нагорная, маршрут автобуса 16, вообще в плачевном состоянии, как там вообще автобус ходит?!! Улица Студенческая - ул. Институтская, яма см. 30 глубиной!!! Наверное надо делать фото и видео и отправлять на сайт президента, а то одни отговорки у всех.**
@@ -596,7 +569,12 @@
 </t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 10.07.2023, 10:33**
 **Здравствуйте, Ирина.**  
@@ -608,31 +586,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>390459</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1312627</v>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>(№6 за 1.07) Ямочный ремонт от Ленина - Лазо до Политехнической и порыв около Ленина, 27.</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>Просрочено</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>12914657</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(№6 за 1.07) Ямочный ремонт от Ленина - Лазо до Политехнической и порыв около Ленина, 27.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте. Будет проводиться ямочный ремонт от Ленина - Лазо до Политехнической.**
@@ -642,7 +611,12 @@
 </t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 03.07.2023, 12:57**
 **Здравствуйте!**
@@ -654,31 +628,22 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>390459</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1312627</v>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(№8 за 1.07) Профилирование подъезда к дворовой территории по адресу Красноармейская, 159/5. </t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>Просрочено</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>12915639</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(№8 за 1.07) Профилирование подъезда к дворовой территории по адресу Красноармейская, 159/5. </t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>**ТГ:**
 **Добрый день, подъезд к дворовой территории по адресу Красноармейская 159/5 в больших ямах, есть возможность хотя бы грейдер пустить?**
@@ -687,34 +652,30 @@
 &gt;</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Перов Дмитрий Александрович, Темнюк Игорь Дмитриевич, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>390459</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1312627</v>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>(№61 за 4.07) Провал тротуарной плитки на пересечении улиц Институтская и Кантемирова.</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>Просрочено</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>12922581</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(№61 за 4.07) Провал тротуарной плитки на пересечении улиц Институтская и Кантемирова.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день. Провалилась плитка на тротуаре, пересечение улиц Институтская и Кантемирова, возле дома по адресу Институтская 12**
@@ -723,7 +684,12 @@
 </t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Воронов Александр Евгеньевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 05.07.2023, 12:30***
 **Добрый день, Александр!**
@@ -738,31 +704,22 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>390459</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1312627</v>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>(№74 за 5.07) Работа светофора по Театральной</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>Просрочено</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>12925303</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>(№74 за 5.07) Работа светофора по Театральной</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t xml:space="preserve">**ВК:**
 **Здравствуйте,когда сделают светофор по театральной возле кольца,к магазину «ангара» подходить , остановка там ,такой поток машин , пройти невозможно .**
@@ -770,7 +727,12 @@
 </t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Воронов Александр Евгеньевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 05.07.2023, 12:35***
 **Добрый день, Карина!**
@@ -782,31 +744,22 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>390459</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1312627</v>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>(№128 за 8.07) Сообщить о принятых мерах по Строителей, 70.</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>Просрочено</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>13026595</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>(№128 за 8.07) Сообщить о принятых мерах по Строителей, 70.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t xml:space="preserve">**ВК:**
 **Здравствуйте. Это вид с окна на улице Строителей д 70.**
@@ -816,7 +769,12 @@
 </t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 12.07.2023, 10:41**
 **Здравствуйте, Олег!** 
@@ -836,31 +794,22 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>390459</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1312627</v>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>(№158 за 11.07) Выезд административной комиссии по адресу Краснофлотская, 75.</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>Просрочено</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>13026665</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>(№158 за 11.07) Выезд административной комиссии по адресу Краснофлотская, 75.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день, прошу вас разобраться в сложившейся ситуации возле дома 77 по ул. Краснофлотской, а именно с момента открытия государственной границы, гости города с поднебесной арендовали помещение бывшей гостиницы прилегающее к вышесказанному дому и устроили из него склад, данное помещение расположено по адресу: Краснофлотская д. 75. Проблема состоит в том, что граждане КНР не имея собственных мусорных контейнеров выбрасывают свои отходы в мусорные контейнеры принадлежащие и оплачиваемые собственниками многоквартирного дома, помимо этого вся дворовая и пред дворовая территория загажена отходами данных граждан, также постоянный нескончаемый поток автомобилей практически заблокировал въезд во двор из за чего жильцы дома не могут попасть на территорию своего дома. Проведите соответствующую проверку по данному факту, обяжите собственника помещения дома 75 по ул. Краснофлотской поставить корзины для мусора, а также при нарушении административного законодательства привлеките к ответственности за организацию незаконной свалки. Ниже прилагается видео.**
@@ -868,7 +817,12 @@
 </t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***По информации ООО "Полигон" договор на оказание услуг по обращению с ТКО по объекту ул. Краснофлотская, 75 заключен, вывоз организован бесконтейнерным способом (в пакетах) 1,5 куб. м (6 пакетов по 240 литров) ежедневно.***
 Коротченко А.В., 13.07.2023 12:55
@@ -892,31 +846,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>390459</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1312627</v>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>(№171 за 12.07) Ликвидировать свалку бытовых отходов в районе Чайковского 171</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>Просрочено</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>13026668</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>(№171 за 12.07) Ликвидировать свалку бытовых отходов в районе Чайковского 171</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день, подскажите возможно как то рассмотреть возможность ликвидировать свалку бытовых отходов в районе Чайковского 171в. Много людей отдыхает на берегу р.Зея (рыбаки, прогуливающиеся горожане).**
@@ -924,7 +869,12 @@
 </t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***(справочно) 13.07.2023 после обеда будет выезд по данному вопросу***
 Коротченко А.В. 14.07.2023 10:34
@@ -936,31 +886,22 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>390459</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1312627</v>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>(№175 за 12.07) Демонтаж столба на Горького - 50 лет Октября</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>Просрочено</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>13026671</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>(№175 за 12.07) Демонтаж столба на Горького - 50 лет Октября</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Этот спиленный столб торчит на перекрёстке Горького - 50 лет, огромная просьба пилить его короче положить плитку на это место.**
@@ -969,7 +910,12 @@
 </t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В.,13.07.2023 14:44**
 **Добрый день, Тамара!**
@@ -989,31 +935,22 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>390459</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>(№211 за 15.07) Провести очистку и углубление водоотводных канав по пер. Центральный между ул. Пограничная и ул. Павленко.</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>13083666</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>(№211 за 15.07) Провести очистку и углубление водоотводных канав по пер. Центральный между ул. Пограничная и ул. Павленко.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t xml:space="preserve">**ОК:**
 **Здравствуйте,  15 июля, я понимаю дел у Вас выше крыши. Ливневка наша поросла травой.переулок Центральный 9**
@@ -1023,7 +960,12 @@
 </t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 31.07.2023, 12:06**
 **Здравствуйте, Нина!**
@@ -1043,31 +985,22 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>390459</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>(№230 за 17.07) Уборка сухих веток по улице Новой</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>13028454</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>(№230 за 17.07) Уборка сухих веток по улице Новой</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте, с 98года по улице Новой между Горького и Красноармейскай скос травы на газоне производилась силами гстк.В этом году гстк не скосили вовремя и штраф за это Администрация выписала нам.на каком основании?**
@@ -1076,7 +1009,12 @@
 </t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Коротченко А.В. 19.07.2023 15:25***
 ***заявка направлена на спил гстк***
@@ -1096,31 +1034,22 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>390459</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(№40 от 3.07) Заделка наружных швов на доме Ленина, 62.</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>12921073</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>(№40 от 3.07) Заделка наружных швов на доме Ленина, 62.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте. Сегодня 3.07.2023 так никто и не приступил к работе.**
@@ -1134,7 +1063,12 @@
 </t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 10.07.2023, 15:53**
 **Добрый день, Юлия!**
@@ -1144,31 +1078,22 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>390459</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>(№105 за 6.07) Установить знаки "Въезд запрещен" и "остановка/стоянка запрещена</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>13026582</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>(№105 за 6.07) Установить знаки "Въезд запрещен" и "остановка/стоянка запрещена</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте!**
@@ -1184,7 +1109,12 @@
 </t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Коротченко А.В.10.07.2023 17:35***
 ***Здравствуйте, Вера Николаевна!***
@@ -1198,31 +1128,22 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>390459</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>(№110 за 6.07) Водоотведение на отремонтированном участке Горького</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>13026584</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>(№110 за 6.07) Водоотведение на отремонтированном участке Горького</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день. Домой идя когда льет дождь по итогу по колено можешь оказаться в луже - НА ОТРЕМОНТИРОВАННОМ не так давно участке Горького, а я думаю не только там, происходит интересная штука, воды на переходах по зебре по-колено. Сливные решетки не забиты, они просто в метре от пешеходного перехода стоят на возвышении КАК БЫ НАПОМИНАЮТ О ТОМ, что у нас дороги и Дураки как были самой главной проблемой так и остались. Одни дураки строят эти дороги, другие принимают. Если сейчас не предпринимать ничего, то в хороший ливень город опять будет плавать несмотря на выброшенные бюджетные деньги для решения по большей части именно этих проблем. Проинспектируйте горького Шимановского на предмет высотного уровня ливневок.**
@@ -1231,7 +1152,12 @@
 </t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Воронов Александр Евгеньевич</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 07.07.2023, 16:03***
 **Добрый день, Дмитрий!**
@@ -1245,31 +1171,22 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>390459</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>(№115 за 7.07) Яма по ул. Калинина  - просадка асфальтобетонного полотна на пешеходном переходе</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>13026588</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>(№115 за 7.07) Яма по ул. Калинина  - просадка асфальтобетонного полотна на пешеходном переходе</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте. На дорожном полотне, как раз на пешеходном перекресте, по ул Калинина (Горького) по направлению на север, ямка, сегодня переходила, оступилась. Хорошо обошлось, ничего не сломала. Хорошо бы устранить проблему.**
@@ -1277,7 +1194,12 @@
 </t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Воронов Александр Евгеньевич</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 10.07.2023, 16:17 (промежуточный ответ)***
 **Наталья, добрый день!**
@@ -1296,31 +1218,22 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>390459</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>(№372 по 27.07) Ремонтные работы на инженерных сетях по Игнатьевскому шоссе, 7</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>13096935</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>(№372 по 27.07) Ремонтные работы на инженерных сетях по Игнатьевскому шоссе, 7</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день,подскажите когда будет горячая вода в домах 2 микрорайон ул. Игнатьевское шоссе 7 . Обучали 2августа дать ? Мы с мая без горячей воды**
@@ -1328,7 +1241,12 @@
 </t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 15:48**
 **Здравствуйте, Лариса Владимировна!**
@@ -1349,31 +1267,22 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>390459</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>(№35 за 3.07) Ремонтные работы по замене сети по адресу Ломоносова, 68.</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>12920631</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>(№35 за 3.07) Ремонтные работы по замене сети по адресу Ломоносова, 68.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>**ВК:**
 **Добрый день. Помогите пожалуйста. У нас в частный дом Ломоносова 68 в подвал поступает горячая вода. Теплосетям сообщили час назад, вода поступает очень быстро. Никто не реагирует. Теплосети говорят что передали информацию они ждут**
@@ -1381,7 +1290,12 @@
 ++**[Виктория Амельяненко](https://vk.com/id608398563)**++</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 07.07.2023,12:37**
 **Здравствуйте, Виктория!**
@@ -1393,31 +1307,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>390459</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>(№33 за 3.07) Восстановление благоустройства по ул. Шевченко между ул. Октябрьская и ул. Северная</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>12920424</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>(№33 за 3.07) Восстановление благоустройства по ул. Шевченко между ул. Октябрьская и ул. Северная</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте! Октябрьская, 197, со стороны Шевченко сняли асфальт и не восстановили. Сейчас дожди налили огромную лужу! Невозможно выйти на парковку- на этом месте вода и грязь.**
@@ -1425,7 +1330,12 @@
 </t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Воронов Александр Евгеньевич, Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Рябкова Н.А 03.07.23, 10:33(для информации)***
 ***ГСТК работы не проводил.***
@@ -1446,31 +1356,22 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>390459</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(№65 за 4.07) Установить леерное ограждение на детской площадке в районе ДВОКУ</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>12923953</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>(№65 за 4.07) Установить леерное ограждение на детской площадке в районе ДВОКУ</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте. В сквере по Ленина недалеко от ДВОКУ расположена детская площадка. Она не отгорожена от дороги, это опасно. Дети играют в мяч и могут выбежать под машину.** 
@@ -1478,7 +1379,12 @@
 </t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Воронов Александр Евгеньевич</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 05.07.2023, 10:03, справочно - в контракт входили работы по обустройству МАФов, тротуарной плитки, парковки. Никакого ограждения не входило в работы.*** 
 *Любицкая ИО, 05.07.2023, 12:33*
@@ -1490,31 +1396,22 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>390459</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>(№192 за 13.07) Разметка на Калинина - Тенистой</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>13027675</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>(№192 за 13.07) Разметка на Калинина - Тенистой</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
         <is>
           <t xml:space="preserve">**ОК:**
 **Пожалуйста дайте команду продублировать разметку ( штих ) и т.д на перекрестке Калинина Тенистая проезд улицы тенистая по Калинина в обе стороны... Спасибо**
@@ -1522,7 +1419,12 @@
 </t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : | **Рябкова Н. А. 14.07.23, 08:21Здравствуйте,Александр.Мероприятия по нанесению разметки в городе ведутся. Поручил  сотрудникам ГСТК поставить в план производства работ указанный Вами участок и обновить разметку до 30.07.23.Спасибо за обращение!
 Рябкова Н.А 28.07.23, 11:05Работы по нанесению разметки перенесены в срок до 08.08.23** | 
@@ -1532,31 +1434,22 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>390459</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>(№157 за 11.07) Скосить траву по Красноармейской, 198</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>13026620</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>(№157 за 11.07) Скосить траву по Красноармейской, 198</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t xml:space="preserve">**ВК:**
 **Добрый день. По городу косят траву, а у нас Красноармейская 198 когда с косят. Почему только центр, а мы тоже хотим порядок. У нас рядом больницы, очень много машин ставят по обочине дороги, выехать с дома очень сложно. Можно решить вопрос.**
@@ -1564,7 +1457,12 @@
 </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 19.07.2023 16:52**
 **Добрый день, Лидия!**
@@ -1582,31 +1480,22 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>390459</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1316738</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>(№176 за 12.07) Очистка от мусора территории в районе улицы Железнодорожной</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>13026675</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>(№176 за 12.07) Очистка от мусора территории в районе улицы Железнодорожной</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Продолжение вопроса 30 за 2.06**
@@ -1616,7 +1505,12 @@
 </t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Коротченко А.В.19.07.2023 18:54***
 ***Дал поручение ГСТК до 30.08.2023 в связи с большой загруженностью произвести очистку от мусора данной территории.***
@@ -1631,31 +1525,22 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>390459</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>(№229 за 17.07) Не работает колонка - с. Садовое. Улица Спортивная.</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>13027802</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>(№229 за 17.07) Не работает колонка - с. Садовое. Улица Спортивная.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Колонка опять не работаеет. 13 июля дали заявку в водоканал. Сегодня 17.Ничего не сделано, ничего не исправлено.... Посоветуйте, куда обратиться? Может уже не Имамееву жаловаться, а на него ???** 
@@ -1665,34 +1550,30 @@
 </t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>390459</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>(№80 за 5.07) Ямочный ремонт на ул Амурской, на 2х участках - между Чайковского и Пушкина и между Кузнечной и Театральной.</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>12947609</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>(№80 за 5.07) Ямочный ремонт на ул Амурской, на 2х участках - между Чайковского и Пушкина и между Кузнечной и Театральной.</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте, обращая Ваше внимание на ул Амурскую, на 2х участках - между Чайковского и Пушкина и между Кузнечной и Театральной на проезжей части образовались ямы, никто их не ремонтирует, в дождь, не зная можно повредить машину или попасть в дтп., спасибо.**
@@ -1700,7 +1581,12 @@
 </t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 10.07.23, 14:55**
 **Здравствуйте, Ольга! В целях безопасности дорожного движения поручил специалистам ГСТК провести ямочный ремонт струйно-инъекционным способом на указанных Вами участках, в срок до 20 июля.**
@@ -1712,31 +1598,22 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>390459</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>(№83 за 5.07) Профилирование проезда в районе ЗПУ-3 от ул. Василенко</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>12947687</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>(№83 за 5.07) Профилирование проезда в районе ЗПУ-3 от ул. Василенко</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день!**
@@ -1753,7 +1630,12 @@
 </t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Воронов Александр Евгеньевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : | ***Любицкая ИО, 10.07.2023, 11:20*Добрый день, Ирина!Сотрудники ГСТК содержат дороги общего пользования. Указанный Вами участок не относится к таковым, это внутриквартальный проезд.Поручил им в срок до 25.07.2023 выполнить работы по ремонтному профилированию проезда.Благодарю Вас за обращение и надеюсь на понимание. Хорошего Вам дня!
 *Сегодня будет направлена заявка в ГСТК на профилирование проезда в районе ЗПУ-3 от ул. Василенко в сторону конно-спортивного клуба “Аллюр” в срок до 20.07.23. В ответе специально ставлю больше.*
@@ -1764,31 +1646,22 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>390459</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>(№55 за 4.07) Вывоз дерева на территории общ.АГМА ( Горького-Кузнечная).</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>12921708</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>(№55 за 4.07) Вывоз дерева на территории общ.АГМА ( Горького-Кузнечная).</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t xml:space="preserve"> | **ТГ:Доброе утро! На сегодняшний день 4 июля 2023 года нет никаких действий со стороны ГСТК по вашему поручению! Как деревья валялись так валяются в речке, кроме того на территории общ.АГМА ( Горького-Кузнечная) бывший стадион 30 .06, 23г спилили дерево огромный старый тополь сломали забор, ничего за собой не убрали . Как любящий гражданин нашего города , прошу ВАШЕЙ помощи, обратите пожалуйста на это безобразие.
 Ольга (#ID2098164507)
@@ -1797,7 +1670,12 @@
 </t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В.11.07.2023 18:00**
 **Здравствуйте, Ольга!**
@@ -1808,31 +1686,22 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>390459</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>(№59 за 4.07) Промывка ливневки по ул. Дьяченко.</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>12922062</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>(№59 за 4.07) Промывка ливневки по ул. Дьяченко.</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день!Вот такое состояние ливневки по ул Дьяченко ,около перехода к школе!**
@@ -1841,7 +1710,12 @@
 </t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 05.07.23, 10:22**
 **Здравствуйте. Поручил специалистам ГСТК провести работы по промывке ливневой канализации по ул.Дьяченко в срок до 10.07.23.**
@@ -1857,31 +1731,22 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>390459</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>(№2 за 1.07) Прочистить ливневую канализацию на Лазо, 79.</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>12914423</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>(№2 за 1.07) Прочистить ливневую канализацию на Лазо, 79.</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
         <is>
           <t>**Здравствуйте. Ливневая канализация. Лазо, 79**
 SvetLanA18, @SvetLana_18a (#ID143977609)
@@ -1889,7 +1754,12 @@
 ![](https://files.kaiten.io.s3.amazonaws.com/65a46a63-c589-4f36-8aff-7cff6b12a6c8.jpg)</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 03.07.23, 09:55**
 **Здравствуйте, Светлана. Поручил специалистам ГСТК провести очистку ливневых решеток по ул.Лазо, в срок до 07.07.23.**
@@ -1903,31 +1773,22 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>390459</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>(№4 за 1.07) Установить урны на участке ул. Краснофлотской.</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>12914476</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>(№4 за 1.07) Установить урны на участке ул. Краснофлотской.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
         <is>
           <t>**ТГ:**
 **Здравствуйте Уважаемый Олег Гатаулович, пишим вам повторно по поводу бардака, который творят китайцы по ул. Краснофлотской между Чайковского и Политехнической, подьезд к речному вокзалу свалку убрали, появилась новая, когда уже примутся меры, территория по видиму городская, амур ассо никак не реагирует, если не принять никаких мер, то через месяц придётся бульдозер ом все вывозить, отправляю видео от 01.07.2023**
@@ -1935,7 +1796,12 @@
 ![](https://files.kaiten.io.s3.amazonaws.com/1f49c071-8aa6-43c8-93ae-21549419cbf7.jpg)</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 05.07.2023, 15:35**
 **Здравствуйте, уважаемая Юлия!**
@@ -1951,31 +1817,22 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>390459</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>(№210 за 15.07) Отремонтировать ул Пушкина между Горького и Амурской</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>13027706</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>(№210 за 15.07) Отремонтировать ул Пушкина между Горького и Амурской</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте, можно еще отремонтировать ул Пушкина между Горького и Амурской, уже давно разбит этот участок и ямы со временем увеличиваются, спасибо.**
@@ -1983,7 +1840,12 @@
 </t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Воронов Александр Евгеньевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 17.07.2023, 09:29***
 **Ольга, добрый день!**
@@ -2000,31 +1862,22 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>390459</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>(№3 за 1.07) Восстановление пешеходных дорожек на Пушкина, 66.</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>12914448</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>(№3 за 1.07) Восстановление пешеходных дорожек на Пушкина, 66.</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
         <is>
           <t>**ТГ:**
 **Продолжение вопроса 7 за 1.06**
@@ -2042,7 +1895,12 @@
 До 30.06.2023 подрядчик уберет весь строительный мусор, в том числе будет решаться вопрос с забором и дорожками. Забор и дорожки демонтировали не полностью по причине того, что не все они попали в зону производства работ. Подрядная организация работает исключительно по тех.заданию контракта и в определенных границах. Что касается газона, то его посев не входил в контракт. Напомню, что работы по ул. Пушкина проводились по ремонту ливневой канализации.</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Воронов Александр Евгеньевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 03.07.2023, 10:19***
 **Олег, добрый день!**
@@ -2057,31 +1915,22 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>390459</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>(№21 за 2.07) Устранить яму по улице 50 лет октября - между домом 202 и 204, на выезде/въезде во дворы.</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>12916104</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>(№21 за 2.07) Устранить яму по улице 50 лет октября - между домом 202 и 204, на выезде/въезде во дворы.</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте!!! Спасибо большое что в очередной раз «сдержали»свое обещание.**
@@ -2091,7 +1940,12 @@
 </t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Рябкова Н.А 04.07.23, 14:03***
 ***В связи с неисправностью ЯР-5 и ввиду неудовлетворительных погодных условий ранее.. сроки сдвинуты до 10.07.23.*** 
@@ -2103,31 +1957,22 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>390459</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>(№26 за 2.07) Выполнить работы в тепловом узле по адресу Калинина, 41.</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>12916138</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>(№26 за 2.07) Выполнить работы в тепловом узле по адресу Калинина, 41.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте, Олег Гатауллович .**
@@ -2138,7 +1983,12 @@
 </t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 04.07.2023, 15:35**
 **Добрый день, Ольга!**
@@ -2172,31 +2022,22 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>390459</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>(№45 за 3.07) Устранение провала на тротуаре в районе 50 лет Октября- Октябрьская.</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>12921335</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>(№45 за 3.07) Устранение провала на тротуаре в районе 50 лет Октября- Октябрьская.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Улица 50 лет Октября- Октябрьская яма**
@@ -2205,7 +2046,12 @@
 </t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 04.07.23, 14:06**
 **Здравствуйте, Иван. Содержанием тротуаров занимается  подразделение ГСТК. Поручил устранить данный провал в срок до 18.07.23.**
@@ -2221,31 +2067,22 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>390459</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>(№228 за 17.07) Подъезд к дворовой территории по адресу Красноармейская, 159/5, в больших ямах</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>13027759</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>(№228 за 17.07) Подъезд к дворовой территории по адресу Красноармейская, 159/5, в больших ямах</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Продолжение вопроса 8 за 1.07**
@@ -2256,7 +2093,12 @@
 </t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 17.07.23, 16:28**
 **(мероприятия в плане производства работ на 17.07.23)** 
@@ -2269,31 +2111,22 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>390459</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>(№291 за 16.07) Скосить траву на Муравьёва-Амурского</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>13027733</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>(№291 за 16.07) Скосить траву на Муравьёва-Амурского</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте!**
@@ -2304,7 +2137,12 @@
 </t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В., 18.07.2023 10:47**
 **Здравствуйте!**
@@ -2327,31 +2165,22 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>390459</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>(№130 за 8.07) Ямочный ремонт на Ленина-Нагорной</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>13026599</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>(№130 за 8.07) Ямочный ремонт на Ленина-Нагорной</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
         <is>
           <t xml:space="preserve">**ВК:**
 **комментарий к посту про светофоры от 5.07**
@@ -2360,7 +2189,12 @@
 </t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Воронов Александр Евгеньевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 10.07.2023, 12:08***
 **Добрый день, Владимир!**
@@ -2375,31 +2209,22 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>390459</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>(№150 за 11.07) Скос травы в центре города</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>13026617</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>(№150 за 11.07) Скос травы в центре города</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте, подскажите почему Центральная часть города в траве. Я думала только в нашем районе Лазо Зейская всё в траве по колено, но нет, набережная, парк напротив администрации. Проезжая мимо КПП аналогично.**
@@ -2409,7 +2234,12 @@
 </t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В. 13.07.2023 10:43**
 **Здравствуйте, Анастасия!**
@@ -2431,31 +2261,22 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>390459</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>(№77 за 5.07) Работа водоразборной колонки  на ул. Октябрьская (пересечение с Островской).</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>12930231</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>(№77 за 5.07) Работа водоразборной колонки  на ул. Октябрьская (пересечение с Островской).</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Три недели колонка на ул. Октябрьская (пересечение с Островской) не работает. Без воды сидят жильцы нескольких деревянных домов - среди них пенсионеры и дети. Сначала сказали, что нет деталей для колонки. Теперь говорят в «Водоканале», что колонки даже в плане ремонтных работ нет. Готовим и моемся дождевой водой!**
@@ -2464,7 +2285,12 @@
 </t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Коротченко А.В. 10.07.2023, 15:21***
 **Здравствуйте, Лилия!**
@@ -2486,31 +2312,22 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>390459</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>(№139 за 9.07) Снос деревьев на Трудовой, 40</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>13026607</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>(№139 за 9.07) Снос деревьев на Трудовой, 40</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Решает управляйка, по предписанию до 10.07 устранить- до сих пор тишина- они в состоянии почти упал!, даже грибы уничтожают их изнутри не по дням а по часам**
@@ -2519,7 +2336,12 @@
 </t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : Коротченко А.В.13.07.2023 12:54
 Добрый день. По информации вашей управляющей компании мероприятия по сносу деревьев будут выполнены до 21.07.2023.
@@ -2531,31 +2353,22 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>390459</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1393100</v>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>(№148 за 11.07)  Высокая трава на площади Ленина за трибуной и памятником Ленину.</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>Готово</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>13026611</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>(№148 за 11.07)  Высокая трава на площади Ленина за трибуной и памятником Ленину.</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте, хочется обратить внимание на совершенно дико растущую траву на площади Ленина за трибуной и памятником Ленину. Высота до пояса взрослому человеку, бурьян и сорняки.**
@@ -2563,7 +2376,12 @@
 </t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Коротченко А.В.,13.07.2023, 15:24**
 **Добрый день, Ольга!**
@@ -2576,31 +2394,65 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>397424</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1323643</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>(№397за 29.07) Восстановление водоснабжения по Мухина, 16</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>13097026</v>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день. Я житель дома по адресу Мухина 16. Плановое отключение горячей воды у нас было 3 июля-14 июля, но потом его продлили до 28 июля. Но потом узнали, что ещё запланировано "внеплановое" отключение с 31 июля по 11 августа.**
+**28 июля горячая вода в доме не появилась. 29 июля позвонив в аварийную службу узнали, что горячую воду в выходные не включат, "позвоните в понедельник", а в понедельник уже начинается внеплвновое отключение.**
+**И получается, что горячей воды не будет больше месяца. Хотя согласно с Постановлением Правительства РФ 354 от 6.05.2011г в летнее время горячую воду можно отключать только на 14 суток. О таких же сроках указано и в СанПиНе.**
+**И тут возникает вопрос: почему эти нормы игнорируют? Почему, даже при таком расписании работ, нам не включили воду с 28 по 31 июля, которая должна быть?**
+Marina Moskalenko, @Moskalenko_25rus (#ID446317349)
+</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 03.08.2023, 10:42**
+**Здравствуйте!** 
+**Для проведения планового ремонта горячее водоснабжение в Вашем районе было отключено. Сроки завершения работ пришлось продлить в связи с задержкой поставки оборудования - сильфонных компенсаторов.** 
+**Планируемый срок завершения работ - 11.08.2023.**
+**Добавлю, что ремонт участку теплотрассы необходим, АКС стараются провести его как можно быстрее. Конечно, дополнительные неудобства вызваны тем, что плановые и неплановые отключения наложились, из-за чего Вы и Ваши соседи не можете пользоваться горячей водой уже длительное время. Но в будущем на участке будут исключены порывы.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>(№379 за 28.07) Замена трубопровода по Комсомольской, 54/2</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **1\.Добрый день! Адрес Комсомольская 54/2. Месяц отсутствует горячая вода. Сегодня должны были подключить. Сказали, что опять продлили ремонт до 11 августа! Это норма?**
@@ -2610,7 +2462,12 @@
 </t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 31.07.2023, 14:38**
 **Здравствуйте!**
@@ -2620,32 +2477,23 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>13086543</v>
-      </c>
-      <c r="F46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>(№250 за 19.07) Спилить ветки по Театральной, 170</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Доброго дня , перед нашим зданием возле работы , растет высокое дерево , которое контактирует с лилиями электропередач. Можно ли его подрезать, чтоб не было опасности и очагов замыкания .**
@@ -2656,7 +2504,12 @@
 </t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 21.07.2023, 10:22, справочно - ГСТК поехали на указанный адрес для осмотра.***
 *Любицкая ИО, 21.07.2023, 11:38*
@@ -2667,32 +2520,23 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>13086572</v>
-      </c>
-      <c r="F47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>(№252 за 19.07) Отсутствие уличного освещения по улице Высокая между улиц Чайковского и Пушкина</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Хотелось бы узнать причину отсутствия уличного освещения по улице Высокая между улиц Чайковского и Пушкина. Наличие фонарей есть, а света нет, как так?**
@@ -2700,7 +2544,12 @@
 </t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : | **Грачева ЕА, 24.07.2023, 18:19Здравствуйте, Алексей!Эта проблема мне известна, в настоящее время ведется работа по подбору обслуживающей организации.Освещение планируем включить к 01.09.2023.Спасибо за обращение!**  | 
  | --- |
@@ -2708,32 +2557,23 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>13092380</v>
-      </c>
-      <c r="F48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>(№302 за 24.07) Захват земли по Театральной, 178</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t xml:space="preserve">**ОК:**
 **Прошу извинения за позднюю запись. Хочу захватить земли кусок как на Театральной 178, или как на перекрестке Кузнечной с Заводской. А то меня отправили на межевание**
@@ -2746,7 +2586,12 @@
 </t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Воронов Александр Евгеньевич</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 26.07.2023, 17:52***
 **Добрый день, Андрей!**
@@ -2755,32 +2600,23 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>13096620</v>
-      </c>
-      <c r="F49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>(№340 за 26.07) Покос травы на пятой стройке</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день. Помогите решить проблему с покосом травы на пятой стройке, вдоль беговой дорожки. За сезон покос травы не проводился ни разу в районе улиц 50 лет Октября - Школьной, Чигиринский. Заранее благодарю.**
@@ -2788,7 +2624,12 @@
 </t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 13:00**
 **Здравствуйте, Елена!**
@@ -2805,32 +2646,23 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>13097076</v>
-      </c>
-      <c r="F50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>(№380 за 28.07) Очистить от мусора контейнерную площадку</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день! Спасибо Вам за то что не остаётесь равнодушными к нашим проблемам. Понимаю что последнее время часто сообщаю о таких проблемах и прошу помощи, но без Вас, мы все бессильны. И сегодня пишу тоже с просьбой о помощи. Всё тот же квартал Ленина-Чайковского-Зейская-Политехническая, месяц назад компания "Управдом" заменила нам старые металлические контейнера на новые (за это им большое спасибо), но вот убирать за собой старый разрушенный асфальт и мусор они почему-то не хотят. Наш дом решил бы этот вопрос сам, но данная минисвалка (учесть что они также до сих пор не вывезли ветки после спила деревьев) не на нашей придомовой территории, и нам остаётся только лицезреть эту кучу мусора. Заранее спасибо за помощь в решении этого вопроса.**
@@ -2838,7 +2670,12 @@
 </t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 31.07.2023, 12:55**
 **Здравствуйте!**
@@ -2849,32 +2686,23 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>13095660</v>
-      </c>
-      <c r="F51" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>(№336 за 26.07) Освещение остановки "Динамо" п. Моховая Падь</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте, есть какие-то подвижки в решении вопроса - освещения остановки "Динамо" п. Моховая Падь.**
@@ -2884,7 +2712,12 @@
 </t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 27.07.2023, 17:54** 
 **Здравствуйте, Тамара!**
@@ -2893,32 +2726,23 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>13096682</v>
-      </c>
-      <c r="F52" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>(№342 за 26.07) Трава на Мухина - Зейская</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте. Проблема с травой. В доль дорог стоит бурьян по пояс всё лето. Мухина -Зейская. Буду писать в администрацию президента . Весь город зарос, грязный.**
@@ -2926,7 +2750,12 @@
 </t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 13:02**
 **Здравствуйте,Юлия!**
@@ -2942,32 +2771,23 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>13086919</v>
-      </c>
-      <c r="F53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>(№256 за 19.07) Убрать аварийные деревья на территории Горпарка</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте спасибо за шикарную плащадку** 
@@ -2978,7 +2798,12 @@
 </t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Хопатько Виктория Андреевна, Степаненко Анна Олеговна</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Коротченко А.В., 20.07.2023 17:29***
 ***Произведен осмотр данной территории. Выявлено большое количество аварийных деревьев. В срок 31.08.2023 будут проведены мероприятия по сносу аварийных деревьев.***
@@ -2993,73 +2818,23 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>13224917</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>(№410 за 31.07) Очистка стоянки и прилегающей территории по ул.Зейская, д.61</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**ТГ:**
-**Здравствуйте, Олег Гатауллович. Ваше поручение, данное ГСТК по очистке стоянки и прилегающей территории по ул.Зейская, д.61, которое должно было быть выполнено до 28.07.2023, НЕ ВЫПОЛНЕНО.**
-Карина, @KarinaVlasenkoo (#ID1804870200)
-</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 02.08.23, 16:35**
-**Здравствуйте. В связи с большой загруженностью ГСТК график работ может смещаться. Работы включены в план со сроком исполнения до 04.08.23.**
-</t>
-        </is>
-      </c>
-    </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>397424</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1323643</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>(№407 за 30.07) Бежит вода на Ленина, 27. Порыв.</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>13224928</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>(№407 за 30.07) Бежит вода на Ленина, 27. Порыв.</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **1)Ленина, 27. Вода бежит уже месяц**
@@ -3074,7 +2849,12 @@
 </t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 02.08.2023, 12:19**
 **Здравствуйте!** 
@@ -3084,31 +2864,60 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>397424</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1323643</v>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>(№401 за 30.07) Не горят фонари в Белогорье</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>13092634</v>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте. Меня зовут Ольга. Я проживаю в селе Белогорье, ул Заводская 9 .С мая этого года на крутом лестничном марше, ведущим к остановкам и заводу, не горят фонари. Ночью наши строители с завода, в том числе и женщины, возвращаются в темноте. Спуск очень крутой. Олег Гатауллович, просим содействия в этом вопросе у Вас. На мои звонки в ЖКХ по этому вопросу нам отвечают, что аукцион на обслуживаюшую организацию не прошёл. А мы так радовались новой лестнице и огням!**
+Ольга, @Olga7031 (#ID5249338190)
+</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 03.08.2023, 10:50**
+**Здравствуйте!**
+**Спасибо за информацию. Действительно, при проведении аукциона возникли сложности. Поручил в срок до 11.08.2023 заключить контракт с обслуживающей организацией. Освещение должны подключить к 01.09.2023, так как еще требуется установка счетчиков.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>(№307 за 24) Очистка от мусора территории на углу улиц Калинина и Октябрьская</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **В свете последних новостей вопрос: будут ли когда-нибудь заниматься сквером на углу улиц Калинина и Октябрьская?**
@@ -3116,7 +2925,12 @@
 </t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 26.07.2023, 16:50**
 **Здравствуйте, Андрей!**
@@ -3127,39 +2941,76 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>13096528</v>
-      </c>
-      <c r="F57" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>(№402 за 30.07) Установка дорожных знаков</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Продолжение вопроса 324 за 25.07**
+Кузнечная-пер Фабричный
+Кузнечная-пер Красногвардейский
+Кузнечная-ул Широкая
+Отсутствуют дорожные знаки на данных перекрёстках , значит они равнозначные, но водители двигаясь по асфальтированной Кузнечной пренебрегают помеху с права по отношению к выше перечисленным улицам т.к там покрытие гравийное. Произойдёт дтп кто будет виноват? Администрация в первую очередь.
+Andrey Demidkin, @andrej28rus (#ID406735651)
+</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 01.08.23, 13:12**
+**Здравствуйте. Мероприятия по установке дорожных знаков будут выполнены до 31.08.23.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>(№337 от 26.07) Ремонт дорожного полотна</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>**ТГ:**
 **Здравствуйте, 2 год не производится ямочный ремонт ул. Ленина от ул. Политехнической до ул. Пушкина. Весь асфальт в разрывах и ямах, особенно по направлению от Театральной к Пушкина. Возле перекрестков Политехнической и Чайковского ехать вообще невозможно. Так же по ул. Лазо от ул. Ленина до ул. Амурская есть сдвоенные люки канализации, грузовики ездиющие с торгового порта разбили асфальт возле люков, водителям приходится выезжать на встречную полосу либо заезжать на левую полосу половиной машины чтобы объехать ямы возле канализациоеных люков**
 Олег, @Oleg28russs (#ID1397874009)</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 12:50**
 **Здравствуйте, Олег!**
@@ -3169,32 +3020,23 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>13088069</v>
-      </c>
-      <c r="F58" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>(№281 за 21.07) Убрать кабельные линии в районе картодрома Юбилейный</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день! Наблюдаем данную ситуацию уже долго время. В районе картодрома юбилейный, возле велодорожки наклоненный столбы электропередач. Один и вовсе завалился, провод один разорвался и лежит на велодорожке. Никто не исправляет данное происшествие. Прошу повлиять на ситуацию. Это небезопасно**
@@ -3203,7 +3045,12 @@
 </t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Здравствуйте, Екатерина!**
 **Линия электропередач находится без напряжения более трех лет.Специалисты сетевой организации уже демонтировали наклоненные опоры и до 28.07.2023 уберут кабельные линии.**
@@ -3212,32 +3059,23 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>13087618</v>
-      </c>
-      <c r="F59" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>(№269 за 20.07) Провести очистку системы ливневой канализации по ул. Новой между ул. Амурского и ул. Горького</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте,у нас после 15 мин дождя,вся вода с улицы в огород пошла,колодцы полные из ливневки вода бежит наружу. Решитт проблемы мы не можем.Новая 33 кв.2**
@@ -3248,7 +3086,12 @@
 </t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Грачева ЕА, 25.07.2023, 15:43***
 **Здравствуйте, Ольга!**
@@ -3257,32 +3100,66 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>13152307</v>
-      </c>
-      <c r="F60" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>(№414 за 31.07) Подать исковое заявление в суд о выселении нанимателя из муниципальной квартиры</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день, помогите пожалуйста разобраться в ситуации. Обращались в администрацию, дали описание что не могут попасть, прошло 2 месяца и тишина. А в подъезде летом совсем дышать нечем. По адресу Чайковского 195 кв 26, снимается муниципальная квартира, в которой порядок годами не наводиться, тараканы с квартиры выходят спокойно, запах стоит ужасный. Помогите в принятии каких то мер или куда обращаться, жильцы обращались ну никаких исправлений с его стороны не произошло, этот запах терпим более 2 лет**
+В таком состоянии находиться муниципальная квартира. Видео снято когда залил соседей снизу.
+елена (#ID1927106161)
+прислала видео
+</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 02.08.2023, 11:48, справочно - квартира 26 по адресу: ул. Чайковского 195 числится в реестре муниципального фонда. Предоставлена гражданину. Специалистами БГАЖЦ был осуществлен неоднократный выезд, попасть в жилое помещение не представилось возможным. Были направлены (26.05 и 30.06) предупреждения о необходимости соблюдения законных интересов соседей - устранить антисанитарное состояние и предоставить доступ в жилое помещение для проверки. Предупреждение не исполнено. В срок до 15.08.2023 будет подано исковое заявление в суд о выселении нанимателя.***
+*Касимова ЕВ, 03.08.2023, 08:39*
+*Необходимо сформулировать ответ*
+*Любицкая ИО, 03.08.2023,09:39*
+Добрый день!
+Действительно, специалисты Благовещенского городского архивного и жилищного центра неоднократно выезжали по указанному Вами адресу, однако попасть в квартиру не удалось. 26.05.23 и 30.06.23 были направлены предупреждения о необходимости устранения антисанитарного состояния квартиры, а также  требование предоставить доступ в жилое помещение для проверки. Данные предупреждения были проигнорированы и не исполнены гражданином, проживающим там. В настоящее время ведутся разбирательства и сбор необходимых сведений. В срок до 15.08.23 будет подано исковое заявление в суд о выселении нанимателя
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>(№ 343(1) за 26.07) Качели и свет на территории около Харбина</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день.**
@@ -3293,7 +3170,12 @@
 </t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева Е.А., 02.08.2023, 16:16**
 **Здравствуйте!**
@@ -3306,32 +3188,23 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>13097186</v>
-      </c>
-      <c r="F61" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>(№389 от 28.07) Дефекты на площадке в горпарке</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **1)Добрый день!**
@@ -3343,7 +3216,12 @@
 </t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Воронов Александр Евгеньевич</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 31.07.2023, 10:13***
 **Добрый день!**
@@ -3353,32 +3231,23 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>13152508</v>
-      </c>
-      <c r="F62" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>(№351 за 26.07) На перекрёстке Шевченко-Ломоносова провал грунта</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте! На перекрёстке Шевченко-Ломоносова сильный провал грунта возле коллектора (по ул. Ломоносова в сторону Богдана Хмельницкого. Обрушение может произойти в любой момент, особенно если проедет тяжёлая спецтехника. Просьба отправить на место провала оперативные службы.**
@@ -3386,7 +3255,12 @@
 </t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева Е.А., 01.08.2023, 12:55**
 **Здравствуйте!** 
@@ -3395,32 +3269,23 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>13086134</v>
-      </c>
-      <c r="F63" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>(№237 за 18.07) Ремонтное профилирование пер. Дальневосточного</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте, живём район Тайваня, хотелось бы узнать почему центральную улицу Кузнечную прогребают дорогу грейдером , а в переулки и не заходит. Дорога вся в ямах..., конкретно переулок Дальневосточный,**
@@ -3430,7 +3295,12 @@
 </t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Рябкова Н.А 18.07.23, 15:49***
 ***Работы по грейдированию включены в план производства на 19.07.23.*** 
@@ -3450,32 +3320,23 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>13152521</v>
-      </c>
-      <c r="F64" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>(№373 от 27.07) Ямочный ремонт по ул. Садовой</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте. Извините пожалуйста, что в столь позднее время обращаюсь к Вам Очень прошу Вас, проехать и лично посмотреть участок дороги по ул. Садовая, в районе Астрахановки. Остановка между пер.Ученический и ост. Садоваяэто ведь просто УЖАС...Яма, которую объехать не возможно!!! Постоянно пробивают колёса!**
@@ -3483,7 +3344,12 @@
 </t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 01.08.23, 13:27**
 **Здравствуйте. Мероприятия по ямочному ремонту указанного Вами участка уже включены в план производства работ. Срок исполнения до 31.08.23**
@@ -3491,76 +3357,23 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>13086228</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>(№246 за 19.07) Неработающие фонари в сквере по Красноармейской, 61</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**ТГ:**
-**Добрый день!Можно ли узнать ответ на вопрос:когда загорятся фонари в сквере по Красноармейская 61.?(С момента установления в общей сложности горели 3,5 месяца.).**
-Елена Соловей (#ID5259681989)
-</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 24.07.2023, 14:47**
-**Здравствуйте, Елена!**
-**В настоящее время закончился срок контракта, заключенного с обслуживающей организацией, по этой причине освещение временно отключено.  Сейчас готовятся документы на заключение нового контракта.**
-**Плановый срок включения освещения - 03.08.2023.**
-**Спасибо за обращение!**
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>13096796</v>
-      </c>
-      <c r="F66" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>(№359 за 27.07) Порыв на  Красноармейской, 74</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте Уважаемый Олег Гатауллович прошу вас разобраться с проблемой,дело в том что у нас в центре города уже месяц нет горячей воды по причине какой то поломки ,службы Акс раскопали и бросили участок дороги и 22 дня к нему не прикоснулись это по улице красноармейская 74 на звонки отвечают ,что есть сложность,а какая это не ваше дело... Пожалуйста помогите в нашем вопросе хотелось бы знать хотя бы сроки исполнения работ.**
@@ -3568,7 +3381,12 @@
 </t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 16:06**
 **Здравствуйте, Антон!**
@@ -3579,32 +3397,23 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>13027694</v>
-      </c>
-      <c r="F67" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>(№203 за 14.07) Устранение дефектов на площадке Плодопитомника</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день Олег Гатауллович!!! Беспокоит вас Плодопитомник.После серии сильных дождей у нас песок с площадки где стоят тренажеры поплыл.**
@@ -3614,7 +3423,12 @@
 </t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Воронов Александр Евгеньевич, Перов Дмитрий Александрович, Любицкая Ирина Олеговна</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
         <is>
           <t xml:space="preserve">Любицкая Ирина Олеговна: Не все дефекты устранены в связи с большим объемом работ. В срок до 15.08. обещают всё устранить.
 Плотникова Екатерина Игоревна : ***Любицкая ИО, 17.07.2023, 09:26***
@@ -3626,32 +3440,23 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>13086219</v>
-      </c>
-      <c r="F68" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>(№242 за 19.07) Скосить траву на перекрестках ул. Красноармейская - Больничная, Амурская -Больничная, Зейская-Больничная</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день, на перекрёстках красноармейская-больничная, амурская-больнисная, зейская-больничная не подстрижены газоны, трава высокая, при проезде перекрёстка приходится выезжать на перекрёсток, чтобы убедиться о отсутствии автомобилей, создаётся аварийная ситуация, прошу принять меры.**
@@ -3659,7 +3464,12 @@
 </t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 21.07.23, 16:24**
 **Здравствуйте, Егор. Работы по скашиванию травы ведутся ежедневно согласно графику. Поручил ГСТК в срок до 10.08.23 включить указанный Вами адрес в  план производства работ.** 
@@ -3674,32 +3484,23 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>13086244</v>
-      </c>
-      <c r="F69" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>(№247 за 19.07) Ямочный ремонт дорожного полотна по улицам Павлика Морозова, Пограничной и Садовой</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Два дня назад пришлось съездить а район астрахановка, очень удивились состоянию дорог, не были там год и за этот год дороги пришли в ужасное состояние, сплошные ямы и глубокие, почему не обращается внимание на этот район города, , ехали туда по ул Чайковского и там примерно от туберкулёзного диспансера одна полоса дороги вся пошла волнами и провалами.**
@@ -3707,7 +3508,12 @@
 </t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Здравствуйте, Ольга!**
 **Поручил сотрудникам ГСТК провести  ямочный ремонт дорожного полотна по улицам Павлика Морозова, Пограничной и Садовой в срок до 18.08.23** 
@@ -3719,32 +3525,23 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>13086271</v>
-      </c>
-      <c r="F70" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>(№248 за 19.07) Скосить траву в районе Институтской, 16</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **День добрый! Проблема не первого года.Заброшенный участок между домами. Институтская 14 а за домом.Никто не убирает и косит ! Бурьян ростом с человека. Заброшенная детская площадка, никому ниче не нужно.**
@@ -3753,7 +3550,12 @@
 </t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 25.07.2023, 11:24**
 **Здравствуйте, Светлана!** 
@@ -3773,32 +3575,79 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>13087427</v>
-      </c>
-      <c r="F71" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>(№344 за 26.07) Скосить траву в районе Островского, 251</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | **ВК:Все тот же злополучные переулок, ехать не возможно. Дорога в детский сад, никому дела нет. Яма такая, что машина шкребет. Справа детский садик. Не грейдеруется ничего, всем до лампочки, до ГСТК буквально 300 метров отсюда. Дальше дорога на 10ю школу – то же самое, одни ямы, слева еще один детсад, все это одна дорога. В районе Островского 251 траву никто скосить не может по обочинам, выше человеческого роста. ++[Анатолий Хоменко](https://vk.com/id804462299)++
+прислал видео
+Ранее в мае писал: Обращаюсь с просьбой о ямочном ремонте в переулке между 50 лет октября и Островского подъезд к школе номер 10 и д/саду! Невозможно проехать! Ямы!
+Мы отвечали: специалисты ГСТК обследовали указанный Вами проезд, ремонтное профилирование проезда будет выполнено в срок до 10.06.2023.** | 
+ | --- |
+</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 14:07**
+**Здравствуйте!** 
+**Мероприятия по ремонтному профилированию указанного Вами участка дороги выполнены силами ГСТК.**
+**Что касается покоса травы в нашем городе занимается ГСТК. Ежедневно при благоприятных погодных условиях (в отсутствии дождя) на мероприятия по окашиванию вдоль улично-дорожной сети города выходят работники, которые действуют планомерно, поэтому не переживайте, сорная растительность будет убрана в срок до 20.08.2023.**
+*Касимова ЕВ, 02.08.2023, 08:39*
+*Не пойдет ответ. Заявитель говорит, что дорога вся в ямах, мы отвечаем, что профилирование выполнено. Ни даты, ни какой-либо другой информации.* 
+*Речь о дороги в детский сад, нужно поставить на регулярное профилирование, хотя бы после дождя.Если это выполняется, тем более. Об этом и написать.*
+*Про покос короче. Дожди редки в это лето, не нужно на этом делать акцент и сообщать от имени мэра, кто чем занимается.*
+*пишите по существу. Лишняя информация не нужна.*
+*Грачева ЕА, 02.08.2023, 16:25 (ответ скорректирован):* 
+Здравствуйте! 
+++Мероприятия по++ Ремонтное профилирование указанного Вами участка дороги выполняется  силами ГСТК согласно графикУ (когда?). 
+Что касается покоса травы, то им также занимаются сотрудники ГСТК и проводят его планомерно. Сорная растительность в Вашем районе будет убрана в срок до 20.08.2023.
+Касимова ЕВ, 03.08.2023, 08:11
+Срок добавьте, пож
+Грачева ЕА, 03.08.2023, 12:23
+Здравствуйте! 
+Мероприятия по ремонтному профилированию указанного Вами участка дороги выполняется  силами ГСТК согласно графика, три раза в месяц.
+В последний раз 01.08.2023. Что касается покоса травы, то им также занимаются сотрудники ГСТК и проводят его планомерно. Сорная растительность в Вашем районе будет убрана в срок до 20.08.2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>(№260 за 20.07) Ямочный ремонт по ул.Ленина в Верхнеблаговещенском</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте. в газете весной 2023 года было объявлено о капитальном ремонте ул Ленина в Верхблаговещенске 2 ая деревня в плане ремонта дорог 2023г. Почему Вы тогда отвечаете что ближайшая реализация отодвигается на 2024-2025г. Я Вам также писал в 2022 году Вы ответили что будет делаться в 2023 почему нас постоянно отодвигают. План ведь был утвержден и об этом было объявлено**
@@ -3806,7 +3655,12 @@
 </t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Воронов Александр Евгеньевич</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 20.07.2023, 14:47***
 **Добрый день, Сергей!**
@@ -3818,32 +3672,23 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>13089406</v>
-      </c>
-      <c r="F72" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>(№281 за 22.07) Провести ремонтное профилирование по пер. Зеленому</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t xml:space="preserve">**ВК:**
 **Здравствуйте! Я по такому вопросу, в прошлом году очень хорошо разравнивали дорогу грейдером по адресу пер зелёный Тайвань, в этом году ничего, одни ямы, ездить ужасно, в чем причина? Почему в этом году ничего не предпринимается?**
@@ -3853,7 +3698,12 @@
 </t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 24.07.2023, 15:29**
 **Здравствуйте, Анастасия!**
@@ -3864,32 +3714,23 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>13096848</v>
-      </c>
-      <c r="F73" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>(№361 за 27.07) Ремонтные работы на инженерных сетях по Ленина, 205/11</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t xml:space="preserve">**ВК:**
 **Здравствуйте Олег Гатауллович, я жительница дома на улице Ленина 205/11. Хочу попросить Вас разобраться в очередной раз с нашей Управляющей компанией. Какое то безобразие, а не управляйка в позапрошлом году мы сидели без воды все лето вплоть до отопительного сезона. В прошлом году все было по графику, в этом году начинается продолжение позапрошлого года отключили воду горячую по графику с 3.07 до 14.07. А 14.07 скинули объявление что они ни чего не успели сделать и воды не будет до 28.07. А сейчас повешали объявление что воды не будет до 11 августа. Очень хочется узнать нам воду дадут вместе с отопительным сезоном? Или что нам делать как жить? Или уже в суд нужно идти?**
@@ -3897,7 +3738,12 @@
 </t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 28.07.2023, 15:48**
 **Здравствуйте, Наталья!**
@@ -3915,32 +3761,23 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1323643</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Контроль</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>13092525</v>
-      </c>
-      <c r="F74" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>(№306 за 24.07) Протекает крыша в доме по Ленина, 207/1</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый вечер. Более 10 лет протекает крыша в доме ленина 207/1. Управляющая компания управдом не принимает мер вообще. На вопросы жильцов только хамят . Так после каждого дождя**
@@ -3948,7 +3785,12 @@
 </t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 26.07.2023, 16:34**
 **Здравствуйте, Ирина!**
@@ -3960,32 +3802,273 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>1323644</v>
-      </c>
-      <c r="D75" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>(№386 за 28.07 ) По адресу ул. Калинина д. 68 с 3 июля отсутствует горячее водоснабжение</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, по адресу ул. Калинина д. 68 с 3 июля по настоящее время отсутствует горячее водоснабжение. И по информации с управляющей компании не будет её до 15 августа!**
+**В чем дело, и почему такое происходит никто внятно ответить не может. Практически все лето люди сидят без горячей воды, наматывая счета за электроэнергию (за счёт бойлеров) в тройном размере. А есть инвалиды, пенсионеры и другие категории граждан, и для них это большие неудобства в том числе и с финансовой стороны.**
+**Могли бы вы осветить эту проблему и дать ответ, когда наконец появится горячая вода в этом доме и почему вообще такое происходит в наше время. Спасибо!**
+m_g800, @m_g800 (#ID1436586317)
+</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 31.07.2023, 14:49**
+**Здравствуйте!**
+**В Вашем районе ДГК ведется работа по замене трубопровода тепловой сети. В связи с большой загруженностью и задержками поставок отдельного оборудования, сроки окончания работ пришлось продлить.**
+**Прошу Вас отнестись к этому с пониманием, так как данные мероприятия направлены на повышение надежности тепловых сетей в отопительный период, снижения риска возникновения аварийных ситуаций.**
+**Работы ДГК планирует окончить к 11.08.2023.**
+**Приношу свои извинения за доставленные временные неудобства.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>(№388 за 28.07) Уборка придомовой территории по Мухина, 16.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте!Мы жильцы дома 16''по улице Мухина а так же неравнодушные граждане города. ВОЗМУЩЕНЫ работой нашей управляющей компании ''которая находится по адресу:улица Артилерийская 7. Неоднократно жильцы дома обращались с претензией по уборке придомовой территории 'уборки подъездов и нескошенной травы ''на что слышим только обещания'''своевременная уборка не производится или производится не качественно .Наш дом находится в центре города '''портиться общая картина нашего любимого города '''из-за неопрятного вида придомовой местности \\Благодарим вас за поддержку и действия в отношении нашего обращения**
+Наталья (#ID1230110482)
+прислала много фото
+</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : | **Грачева ЕА, 01.08.2023, 16:23Здравствуйте!Уточнил информацию в Вашей управляющей компании “Управдом”. В срок до 11.08.2023 придомовая территория и подъезды будут приведены в порядок.С руководством компании проведена профилактическая работа о надлежащем и своевременном исполнении своих обязанностей.
+Касимова ЕВ, 02.08.2023, 08:56Допиши, пож, что они могут поменять свою УК
+Грачева ЕА, 02.08.2023, 16:47 (ответ скорректирован):Уточнил информацию в Вашей управляющей компании “Управдом”. В срок до 11.08.2023 придомовая территория и подъезды будут приведены в порядок.С руководством компании проведена профилактическая работа о надлежащем и своевременном исполнении своих обязанностей.Также, если Вы недовольны деятельностью своей управляющей компании, можете обратиться в Государственную жилищную инспекцию или на общем собрании собственников принять решение о смене УК** | 
+ | --- |
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>(№398 за 29.07) Водоснабжение на Больничной, 24/2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте. Ну на Больничной 24/2 как и обещали 28.07 воду не дали. Уже месяц без воды живем**
+**Обещали дать 28 и 31 опять отключить. Но воды так и нет. Вообще это нормально отключать воду на 1,5 месяца**
+Lerkav789uo, @Lera_rafinad (#ID850704469)
+</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 03.08.2023, 10:42**
+**Здравствуйте!** 
+**Для проведения планового ремонта горячее водоснабжение в Вашем районе было отключено. Сроки завершения работ пришлось продлить в связи с задержкой поставки оборудования - сильфонных компенсаторов.** 
+**Планируемый срок завершения работ - 11.08.2023.**
+**Добавлю, что ремонт участку теплотрассы необходим, АКС стараются провести его как можно быстрее. Конечно, дополнительные неудобства вызваны тем, что плановые и неплановые отключения наложились, из-за чего Вы и Ваши соседи не можете пользоваться горячей водой уже длительное время. Но в будущем на участке будут исключены порывы.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>(№ 3 за 1.08) Скосить траву в районе Институтской, 9</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день.Можно спросить и попросить чтоб С Косили Траву в районе Адреса Институтская 9 ,заросло слов нету.**
+Aleksei (#ID1613907454)
+</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **ябкова Н.А 03.08.23, 15:16**
+**Здравствуйте. Мероприятия по скосу травы указанного Вами участка включены в план производства работ до 20.08.23.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>(№8 за 1.08) Заделать швы по Калинина, 132</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ВК:**
+**Добрый день. Вас опять беспокоят с Калинина 132,кв 54.швы нам так и не сделали! Звонила в УК сказали что в середине августа!!! Но как так. Сначала они говорили в мае,сейчас середина августа!. Боюсь представить ,что будет потом. Можно как то на это повлиять?! Надо ремонт делать а смысл его делать если швы не замазанны.балкон уже весь мокрый даже неуспевает просыхает! А УК одни обещания! По поводу горячей воды.должны были дать сегодня. Но как нам стало известно что её не будет до 22го числа. И то узнали от старшей дома( спасибо ей) она звонила сама.а УК даже объявления не повесила не как не оповестила. Как так можно относится к людям!?**
+**Может нам положенна уже хоть какаета скидка на свет?! Все лето без горячей воды греем и греем.сил нет уже .я немогу ребёнку 1.6 объяснить что нельзя купаться каждый день ( особенно в жару) вот и грею воду ,да самим тоже надо .может как то сделать нам перерасчёт?!**
+++**[Ольга Ламах](https://vk.com/id738831803)**++
+Писала в июне:
+Здравствуйте. Подскажите пожалуйста почему в микрорайоне отключили воду на все лето?! На нечетной только стороне хотя перерыто больше на четной. Этож как быть то дети маленькие вода ледяная нагревать этож за электричество бешенные деньги платить!! Я с адреса Калинина 132 кв 54. Мало того что всю зиму мерзли так ещё и все лето мерзнуть! Я не могу себе позволить водоногреватель! Как нам быть???
+И каждый год одно и тоже и копают и копают а толку нет .мы всегда страдаем. Можно как то разобраться этим беспределом сил уже нет 
+Это разве законно на все лето отключать горячую воду?!, и почему нас отключили а напротив там прям вокруг дома все перерыто и есть вода!!!
+Этож не законно отключать на такой длительное время горячую воду! Тем более должны были предупредить что отключат за 10 дней! Что хотят тои творят! Мало того что в УК сказали что приедут в мае замазывать швы! Так ни слуху не духу от них. Разберитьсь пожалуста с нашей УК толку нет от них
+**
+**
+Мы ей отвечали:
+В связи с большим износом сетей АКС привлечены заемные средства из Фонда национального благосостояния для проведения их ремонта и замены.
+По условиям кредитования, деньги должны быть освоены до конца текущего года, поэтому в летний период планируется отремонтировать восемь самых проблемных участков тепловых сетей. Три из них находятся в микрорайоне. В связи с большой протяженностью (более трех км), ремонтные работы невозможно провести в короткие сроки. В целом мы планируем уложиться в 3,5 месяца. При этом, отключение ГВС планируется на период не более 1,5 месяцев в период с 13.06.2023 по 01.08.2023 кроме ул. Институтской, где горячее водоснабжение отключено с 25.05.2023 в результате порыва на тепловых сетях. Там сейчас ведутся ремонтные работы.
+Информация о точных сроках отключения горячей воды будет размещена в средствах массовой информации.
+Конечно о таком длительном отключение должны были предупредить заранее, но в этом случае сработал так называемый человеческий фактор.
+Приношу свои извинения за причиненные временные неудобства и попрошу Вас отнестись к этому с пониманием, так как данные мероприятия направлены на обновление сетей, повышения их надежности, что особенно актуально в отопительный период.
+Что касается утепления швов в доме № 132 по ул. Калинина, то как пояснили в Вашей управляющей компании, работы проведут до 01.08.2023.
+</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : | **Грачева ЕА, 03.08.2023, 17:42Здравствуйте!В указанном Вами районе работы по ремонту инженерных сетей проводятся за счет Фонда национального благосостояния. Объем работ очень большой (замена труб тепловых сетей, запорной арматуры, компенсаторов и прочее).В связи с выявленными многочисленными дефектами тепловой сети, срок окончания работ продлен до 22.08.2023.Что касается заделки швов, то по информации Вашей управляющей компании, работы до сегодняшнего дня не проведены по причине задержки в поставке необходимых для этого материалов и будут выполнены в срок до 31.08.2023.С руководством управляющей компании проведена профилактическая работа о необходимости своевременного информировании граждан об отключении водоснабжения.**  | 
+ | --- |
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Контроль</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>(№ 7 за 1.08) Мероприятия по ремонтному профилированию с подсыпкой и обустройством водоотводных канав по пер. Астрахановский</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день , Уважаемый Олег Гатауллович, обращаются к Вам жители района Астрахановка , просто крик души , просим помочь с ремонтом дороги переулка Астрахановский , между ул. Садовой и ул. Павленко, переулок находится в плачевном состоянии на протяжении многих лет , а в сезон дождей просто не проходим с улицы Садовой , фото не передает этого плачевного , убогого , убитого состояния дороги. Переулок является проходным , много ходит людей к остановке общественного транспорта , также много неудобств для водителей живущих по этому переулку . Сегодня увидели , что в Астрахановке , ГСТК проводят ремонтные работы в соседнем переулке Центральный , приводят в порядок канавы в переулке и восстанавливают канаву на дороге . Просим обратить внимание на наш переулок , своими силами мы не справимся , нужна спецтехника и специалисты .Надежда осталась на Вашу помощь .**
+Доня Иванова (#ID1213047362)
+</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Здравствуйте!**
+**Поручил сотрудникам ГСТК в срок до 14.08.2023 провести мероприятия по ремонтному профилированию с подсыпкой и обустройством водоотводных канав по пер. Астрахановский между ул. Садовой и ул. Павленко.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Готово</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>13092301</v>
-      </c>
-      <c r="F75" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>(№298 за 24.07) Ямочный ремонт по Пролетарской-Шевченко и Политехнической-Амурской</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день! Глобальных ремонтов дорог в этом году не планировали, а ямочный ремонт тоже делать не будут? Местами на проезжей части не ямы, а траншеи... Ну правда, иногда смотришь и удивляешься тому, в каком состоянии у нас дороги. Да везде все и сразу не охватить ремонтом, но хоть заплати можно положить?**
@@ -3994,7 +4077,12 @@
 </t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Плотникова Екатерина Игоревна , Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Здравствуйте!**
 **Ямочный ремонт на дорогах города как в центральных его районах, так и в отдаленных  выполняется силами сотрудников ГСТК с мая текущего года по настоящее время.**  
@@ -4008,32 +4096,23 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>1323644</v>
-      </c>
-      <c r="D76" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Готово</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>13087534</v>
-      </c>
-      <c r="F76" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>(№ 263 за 20.07) Скосить траву вдоль улицы Островского</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте, по нашему адресу тополиная 82 не могут скосить траву вдоль улицы островского. ГСТК в июне приезжали, начался дождь и потом не вернулись. Сейчас уже 3 недели не можем добиться скоса, при выезде со двора плохо видно движение транспорта по дороге.**
@@ -4041,7 +4120,12 @@
 </t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 21.07.2023, 10:11***
 **Добрый день, Юлия!**
@@ -4053,32 +4137,23 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1323644</v>
-      </c>
-      <c r="D77" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Готово</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>13087548</v>
-      </c>
-      <c r="F77" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>(№266 за 20.07) Скосить траву по адресу Тополиная, 82.</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте, по нашему адресу тополиная 82 не могут скосить траву вдоль улицы островского. ГСТК в июне приезжали, начался дождь и потом не вернулись. Сейчас уже 3 недели не можем добиться скоса, при выезде со двора плохо видно движение транспорта по дороге.**
@@ -4087,7 +4162,12 @@
 </t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Плотникова Екатерина Игоревна , Темнюк Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : ***Любицкая ИО, 21.07.2023, 10:11***
 **Добрый день, Юлия!**
@@ -4099,32 +4179,61 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1323644</v>
-      </c>
-      <c r="D78" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Готово</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>13088021</v>
-      </c>
-      <c r="F78" t="inlineStr">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>(№406 за 30.07) Профилирование гравийного участка дороги в районе ул. Шимановского, 278.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ВК:**
+**Здравствуйте. Я живу на улице Шимановского, 278.К моему дому ведёт гравийная дорога от ул Кольцевая. Эту дорогу регулярно грейдииовали, а вот уже неделю не грейдеируют. Ездим по ямам. Хотелось узнать в чем дело, почему эта работа не делается. Пожалуйста проверьте, хотелось бы не ломать свои машины.**
+++**[Vera Ushakova](https://vk.com/weraushskowa)**++
+</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 03.08.2023, 10:56**
+**Здравствуйте!**
+**Ремонтное профилирование гравийного участка дороги в районе ул. Шимановского, 278 выполнено ГСТК 02.08.2023.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>(№ 271 за 21.07) Поврежден флаг РФ</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Здравствуйте, уважаемый Олег Г.! Вчера гуляя по набережной, восторгалась нашим флагом. Сняла видео. Сегодня пересматриваю и вижу, что верхняя часть края белой полосы надорвана...верхний край справа**
@@ -4132,7 +4241,12 @@
 </t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 21.07.23, 16:42**
 **Здравствуйте. Обслуживанием флагштока занимается ГСТК.  К сожалению, из-за ветровых нагрузок, кромка флага периодически надрывается, в связи с чем его приходится подшивать регулярно. Поручил произвести замену флага в срок до 25.07.23.** 
@@ -4143,32 +4257,222 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>1323645</v>
-      </c>
-      <c r="D79" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Готово</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>(№381 за 28.07) Яма перед остановкой по Мухина</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день!! Это автобусная остановка по Мухина перед поворотом на Ленина - остановка раньше называлась "Военторг" - серьезная яма перед остановкой. Хотелось бы попросить ответственные службы обратить внимание. Спасибо!**
+Зубарев Иван (#ID5288313387)
+</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темнюк Игорь Дмитриевич, Плотникова Екатерина Игоревна </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 02.08.23, 14:36**
+**Здравствуйте. Поручил специалистам ГСТК устранить яму в срок до 05.08.23**
+**
+**
+Грачева ЕА, 03.08.2023, 16:02
+Мероприятия выполнены.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Просрочено</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>13086590</v>
-      </c>
-      <c r="F79" t="inlineStr">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>(№246 за 19.07) Неработающие фонари в сквере по Красноармейской, 61</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Добрый день!Можно ли узнать ответ на вопрос:когда загорятся фонари в сквере по Красноармейская 61.?(С момента установления в общей сложности горели 3,5 месяца.).**
+Елена Соловей (#ID5259681989)
+</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 24.07.2023, 14:47**
+**Здравствуйте, Елена!**
+**В настоящее время закончился срок контракта, заключенного с обслуживающей организацией, по этой причине освещение временно отключено.  Сейчас готовятся документы на заключение нового контракта.**
+**Плановый срок включения освещения - 03.08.2023.**
+**Спасибо за обращение!**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>(№410 за 31.07) Очистка стоянки и прилегающей территории по ул.Зейская, д.61</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте, Олег Гатауллович. Ваше поручение, данное ГСТК по очистке стоянки и прилегающей территории по ул.Зейская, д.61, которое должно было быть выполнено до 28.07.2023, НЕ ВЫПОЛНЕНО.**
+Карина, @KarinaVlasenkoo (#ID1804870200)
+</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 02.08.23, 16:35**
+**Здравствуйте. В связи с большой загруженностью ГСТК график работ может смещаться. Работы включены в план со сроком исполнения до 04.08.23.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>(№375 за 28.07) Прочистка водоотводного кювета по ул. Чехова, 68.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**Здравствуйте Олег Гатауллович! Чехова, 69. Сегодня 28.07.23. Скажите, когда будут выполнены работы? Дожди иду, нас продолжает топить.**
+**Фото и видео уже не отправляю, стоит болото, воде некуда уходить.**
+Ольга Кривко (#ID5902748899)
+Мы ей ранее писали: В связи с большой загруженностью ГСТК и поломкой необходимой техники (экскаватора), проведение мероприятий по прочистке водоотводного кювета по ул. Чехова, 68, пришлось перенести на июль.
+Постараемся уложиться в срок до 25.07.23 г
+</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 01.08.23, 16:53**
+**Здравствуйте.  Мероприятия по прочистке кювета включены в план производства ГСТК, и в срок до 05.08.23 будут проведены. Надеюсь на Ваше понимание.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>(№394 за 28.07) Проблема с водоснабжением по Игнатьевскому шоссе, 20.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**ТГ:**
+**1)Здравствуйте, когда на игнатьевском шоссе 20 сделают воду? Из 2 кранов течет горячая вода. Заявки оставляли , а вощ и ныне там. А сейчас делают ремонт двора в рамках 1000 дворов, сделаюь, а через неделю всю красоту разроют?**
+Amurkate (#ID5285760595)
+2)Добрый вечер, Олег Гатауллович, помогите пожалуйста решить проблему, мы проживает по адресу Игнатьевское шоссе 20 ,у нас в доме из холодного и горячего крана бежит только горячая вода, а так же из унитаза. Это продолжается долгое время , мы уже не знаем куда обращаться, управляющая компания не решает этот вопрос. А жить так совсем невозможно один кипяток,очень просим вас нам помочь!!!!!
+Дарья Цивенко (#ID5130058358)
+</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 02.08.2023, 16:52**
+**Здравствуйте!**
+**В настоящее время специалистами АКС решается вопрос о доступе к Вашей придомовой территории для проведения аварийно-восстановительных работ.**
+**Срок устранения до 05.08.2023.**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Просрочено</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>(№254 за 19.07) Уборка территории по Игнатьевскому шоссе, 10/4</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день! Очень странно, конечно, о таком писать, но... Компания "Сервер" провела восстановительные работы на провале нашего дома (Игнатьевское 10/4), собрала свои "вещи", инструменты, деревянный туалет, но решила оставить жителям и, в принципе, всем прохожим, идущим на остановку - вот такой неприятный сюрприз в виде куч !**
@@ -4178,7 +4482,12 @@
 </t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 24.07.2023, 15:59**
 **Здравствуйте!**
@@ -4189,32 +4498,23 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>1323645</v>
-      </c>
-      <c r="D80" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Просрочено</t>
         </is>
       </c>
-      <c r="E80" t="n">
-        <v>13092456</v>
-      </c>
-      <c r="F80" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>(№304 за 24.07) Провал грунта по Игнатьевское ш., д. 10/4</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый день! Я проживаю по адресу: г. Благовещенск, Игнатьевское ш., д. 10/4, 1 подъезд.**
@@ -4225,7 +4525,12 @@
 </t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 27.07.2023, 15:47**
 **Здравствуйте, Наталья!**
@@ -4236,39 +4541,35 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>1323645</v>
-      </c>
-      <c r="D81" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>Просрочено</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>13026614</v>
-      </c>
-      <c r="F81" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>(№149 за 11.07) Смазка качель в сквере Бабочка</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>**ТГ:**
 **Добрый день!! Как решить вопрос смазки качель в сквере Бабочка!! В 12 ночи такие звуки!! ГСТК телефон не работает. А управление ЖКХ города на сайте пишет что не работает!!**
 Борис (#ID5502810939)</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Рябкова Н.А 13.07.23, 15:31**
 **Здравствуйте, Борис! Поручил сотрудникам ГСТК смазать качели в срок до 15.07.23. Благодарю Вас за неравнодушное отношение к жизни города. Хорошего Вам дня.**
@@ -4282,32 +4583,23 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>1323645</v>
-      </c>
-      <c r="D82" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>Просрочено</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>13092812</v>
-      </c>
-      <c r="F82" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>(№326 за 25.07) Очистка контейнерной площадки около ТЦ «Мебельная ярмарка»</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t xml:space="preserve">**ТГ:**
 **Добрый вечер!**
@@ -4316,7 +4608,12 @@
 </t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Ноженкин Максим Сергеевич, Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Здункевич О.В., 28.07.2023, 17.50**
 Здравствуйте, Анастасия!
@@ -4327,32 +4624,23 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>397424</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>1323645</v>
-      </c>
-      <c r="D83" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Август</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>Просрочено</t>
         </is>
       </c>
-      <c r="E83" t="n">
-        <v>13095297</v>
-      </c>
-      <c r="F83" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>(№330 за 26.07) Ремонтное профилирование ул. Пограничная (Астрахановка)</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t xml:space="preserve">**ВК:**
 **Уважаемый Олег Гатауллович, здравствуйте**
@@ -4361,7 +4649,12 @@
 </t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Темнюк Игорь Дмитриевич, Перов Дмитрий Александрович, Имамеев Олег Гатауллович</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
         <is>
           <t xml:space="preserve">Плотникова Екатерина Игоревна : **Грачева ЕА, 27.07.2023, 17:39**
 **Здравствуйте, Евгения!** 
